--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -22695,40 +22695,40 @@
         <v>0.15</v>
       </c>
       <c r="C506" t="n">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="D506" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E506" t="n">
         <v>0.8</v>
       </c>
       <c r="F506" t="n">
-        <v>1.247</v>
+        <v>1.27</v>
       </c>
       <c r="G506" t="n">
-        <v>1.542</v>
+        <v>1.539</v>
       </c>
       <c r="H506" t="n">
-        <v>1.62</v>
+        <v>1.623</v>
       </c>
       <c r="I506" t="n">
-        <v>1.697</v>
+        <v>1.695</v>
       </c>
       <c r="J506" t="n">
-        <v>1.768</v>
+        <v>1.764</v>
       </c>
       <c r="K506" t="n">
-        <v>1.783</v>
+        <v>1.777</v>
       </c>
       <c r="L506" t="n">
-        <v>1.933</v>
+        <v>1.926</v>
       </c>
       <c r="M506" t="n">
-        <v>2.221</v>
+        <v>2.213</v>
       </c>
       <c r="N506" t="n">
-        <v>2.204</v>
+        <v>2.194</v>
       </c>
     </row>
     <row r="507">
@@ -22736,43 +22736,43 @@
         <v>44615</v>
       </c>
       <c r="B507" t="n">
-        <v>0.183</v>
+        <v>0.16</v>
       </c>
       <c r="C507" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="D507" t="n">
-        <v>0.351</v>
+        <v>0.365</v>
       </c>
       <c r="E507" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F507" t="n">
-        <v>1.276</v>
+        <v>1.29</v>
       </c>
       <c r="G507" t="n">
-        <v>1.576</v>
+        <v>1.572</v>
       </c>
       <c r="H507" t="n">
-        <v>1.658</v>
+        <v>1.664</v>
       </c>
       <c r="I507" t="n">
-        <v>1.736</v>
+        <v>1.733</v>
       </c>
       <c r="J507" t="n">
-        <v>1.808</v>
+        <v>1.803</v>
       </c>
       <c r="K507" t="n">
-        <v>1.83</v>
+        <v>1.823</v>
       </c>
       <c r="L507" t="n">
-        <v>1.982</v>
+        <v>1.974</v>
       </c>
       <c r="M507" t="n">
-        <v>2.276</v>
+        <v>2.267</v>
       </c>
       <c r="N507" t="n">
-        <v>2.252</v>
+        <v>2.243</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N507"/>
+  <dimension ref="A1:N508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22775,6 +22775,50 @@
         <v>2.243</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F508" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="H508" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="I508" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="J508" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="K508" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="L508" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M508" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="N508" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N508"/>
+  <dimension ref="A1:N509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22819,6 +22819,50 @@
         <v>2.2</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G509" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="I509" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="J509" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="K509" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="L509" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="M509" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="N509" t="n">
+        <v>2.169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N509"/>
+  <dimension ref="A1:N510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22863,6 +22863,50 @@
         <v>2.169</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F510" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1.527</v>
+      </c>
+      <c r="I510" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="J510" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="K510" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="L510" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="M510" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="N510" t="n">
+        <v>2.091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N510"/>
+  <dimension ref="A1:N511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22907,6 +22907,50 @@
         <v>2.091</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F511" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H511" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="I511" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="J511" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="K511" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="L511" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="M511" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="N511" t="n">
+        <v>1.989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N511"/>
+  <dimension ref="A1:N512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22951,6 +22951,50 @@
         <v>1.989</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="H512" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="I512" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="J512" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="K512" t="n">
+        <v>1.643</v>
+      </c>
+      <c r="L512" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="M512" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="N512" t="n">
+        <v>2.054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N512"/>
+  <dimension ref="A1:N513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22995,6 +22995,50 @@
         <v>2.054</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="H513" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="I513" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="J513" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="K513" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L513" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="M513" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="N513" t="n">
+        <v>2.027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N513"/>
+  <dimension ref="A1:N514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23000,43 +23000,87 @@
         <v>44623</v>
       </c>
       <c r="B513" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="C513" t="n">
-        <v>0.46</v>
+        <v>0.447</v>
       </c>
       <c r="D513" t="n">
-        <v>0.6</v>
+        <v>0.576</v>
       </c>
       <c r="E513" t="n">
-        <v>0.85</v>
+        <v>0.839</v>
       </c>
       <c r="F513" t="n">
         <v>1.27</v>
       </c>
       <c r="G513" t="n">
-        <v>1.479</v>
+        <v>1.481</v>
       </c>
       <c r="H513" t="n">
-        <v>1.534</v>
+        <v>1.526</v>
       </c>
       <c r="I513" t="n">
-        <v>1.536</v>
+        <v>1.537</v>
       </c>
       <c r="J513" t="n">
-        <v>1.587</v>
+        <v>1.589</v>
       </c>
       <c r="K513" t="n">
-        <v>1.61</v>
+        <v>1.615</v>
       </c>
       <c r="L513" t="n">
-        <v>1.778</v>
+        <v>1.784</v>
       </c>
       <c r="M513" t="n">
-        <v>2.067</v>
+        <v>2.075</v>
       </c>
       <c r="N513" t="n">
-        <v>2.027</v>
+        <v>2.034</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F514" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="H514" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="J514" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="K514" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="L514" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="M514" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="N514" t="n">
+        <v>1.967</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -23000,43 +23000,43 @@
         <v>44623</v>
       </c>
       <c r="B513" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="C513" t="n">
-        <v>0.447</v>
+        <v>0.46</v>
       </c>
       <c r="D513" t="n">
-        <v>0.576</v>
+        <v>0.6</v>
       </c>
       <c r="E513" t="n">
-        <v>0.839</v>
+        <v>0.85</v>
       </c>
       <c r="F513" t="n">
         <v>1.27</v>
       </c>
       <c r="G513" t="n">
-        <v>1.481</v>
+        <v>1.479</v>
       </c>
       <c r="H513" t="n">
-        <v>1.526</v>
+        <v>1.534</v>
       </c>
       <c r="I513" t="n">
-        <v>1.537</v>
+        <v>1.536</v>
       </c>
       <c r="J513" t="n">
-        <v>1.589</v>
+        <v>1.587</v>
       </c>
       <c r="K513" t="n">
-        <v>1.615</v>
+        <v>1.61</v>
       </c>
       <c r="L513" t="n">
-        <v>1.784</v>
+        <v>1.778</v>
       </c>
       <c r="M513" t="n">
-        <v>2.075</v>
+        <v>2.067</v>
       </c>
       <c r="N513" t="n">
-        <v>2.034</v>
+        <v>2.027</v>
       </c>
     </row>
     <row r="514">
@@ -23044,43 +23044,43 @@
         <v>44624</v>
       </c>
       <c r="B514" t="n">
-        <v>0.366</v>
+        <v>0.38</v>
       </c>
       <c r="C514" t="n">
-        <v>0.439</v>
+        <v>0.46</v>
       </c>
       <c r="D514" t="n">
-        <v>0.586</v>
+        <v>0.6</v>
       </c>
       <c r="E514" t="n">
-        <v>0.821</v>
+        <v>0.83</v>
       </c>
       <c r="F514" t="n">
-        <v>1.226</v>
+        <v>1.24</v>
       </c>
       <c r="G514" t="n">
-        <v>1.382</v>
+        <v>1.38</v>
       </c>
       <c r="H514" t="n">
-        <v>1.412</v>
+        <v>1.418</v>
       </c>
       <c r="I514" t="n">
         <v>1.429</v>
       </c>
       <c r="J514" t="n">
-        <v>1.464</v>
+        <v>1.463</v>
       </c>
       <c r="K514" t="n">
-        <v>1.497</v>
+        <v>1.493</v>
       </c>
       <c r="L514" t="n">
-        <v>1.668</v>
+        <v>1.664</v>
       </c>
       <c r="M514" t="n">
-        <v>2.006</v>
+        <v>1.998</v>
       </c>
       <c r="N514" t="n">
-        <v>1.967</v>
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N514"/>
+  <dimension ref="A1:N515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23083,6 +23083,50 @@
         <v>1.96</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G515" t="n">
+        <v>1.403</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="I515" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="J515" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K515" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="L515" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="M515" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="N515" t="n">
+        <v>2.022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N515"/>
+  <dimension ref="A1:N516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23127,6 +23127,50 @@
         <v>2.022</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="H516" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="I516" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="J516" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="K516" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="L516" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="M516" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="N516" t="n">
+        <v>2.116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N516"/>
+  <dimension ref="A1:N517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23171,6 +23171,50 @@
         <v>2.116</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G517" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="H517" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="J517" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="K517" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="L517" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="M517" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="N517" t="n">
+        <v>2.198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N517"/>
+  <dimension ref="A1:N518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23215,6 +23215,50 @@
         <v>2.198</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="I518" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="J518" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K518" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L518" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="M518" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="N518" t="n">
+        <v>2.243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N518"/>
+  <dimension ref="A1:N519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23259,6 +23259,50 @@
         <v>2.243</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="H519" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="I519" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J519" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="K519" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="L519" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="M519" t="n">
+        <v>2.303</v>
+      </c>
+      <c r="N519" t="n">
+        <v>2.281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N519"/>
+  <dimension ref="A1:N520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23303,6 +23303,50 @@
         <v>2.281</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G520" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="H520" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J520" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="K520" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="L520" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="M520" t="n">
+        <v>2.442</v>
+      </c>
+      <c r="N520" t="n">
+        <v>2.429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N520"/>
+  <dimension ref="A1:N521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23347,6 +23347,50 @@
         <v>2.429</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G521" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="H521" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="I521" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="J521" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="K521" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="L521" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="M521" t="n">
+        <v>2.496</v>
+      </c>
+      <c r="N521" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N521"/>
+  <dimension ref="A1:N522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23391,6 +23391,50 @@
         <v>2.47</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E522" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="H522" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="I522" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="J522" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="K522" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="L522" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="M522" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="N522" t="n">
+        <v>2.397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N522"/>
+  <dimension ref="A1:N523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23435,6 +23435,50 @@
         <v>2.397</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E523" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F523" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="H523" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="I523" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="J523" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="K523" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="L523" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="M523" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N523" t="n">
+        <v>2.404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N523"/>
+  <dimension ref="A1:N524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23479,6 +23479,50 @@
         <v>2.404</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E524" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F524" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="H524" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="J524" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="K524" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="L524" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="M524" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="N524" t="n">
+        <v>2.377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23523,6 +23523,50 @@
         <v>2.377</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="H525" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="I525" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="J525" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="K525" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="L525" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="M525" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="N525" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N525"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23567,6 +23567,50 @@
         <v>2.47</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="H526" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="J526" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K526" t="n">
+        <v>2.289</v>
+      </c>
+      <c r="L526" t="n">
+        <v>2.419</v>
+      </c>
+      <c r="M526" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="N526" t="n">
+        <v>2.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N526"/>
+  <dimension ref="A1:N527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23611,6 +23611,50 @@
         <v>2.565</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E527" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F527" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="H527" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="J527" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="K527" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="L527" t="n">
+        <v>2.317</v>
+      </c>
+      <c r="M527" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="N527" t="n">
+        <v>2.425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N527"/>
+  <dimension ref="A1:N528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23655,6 +23655,50 @@
         <v>2.425</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2.142</v>
+      </c>
+      <c r="H528" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="J528" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K528" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="L528" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="M528" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="N528" t="n">
+        <v>2.471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N528"/>
+  <dimension ref="A1:N529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23660,43 +23660,87 @@
         <v>44644</v>
       </c>
       <c r="B528" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C528" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="D528" t="n">
-        <v>0.55</v>
+        <v>0.526</v>
       </c>
       <c r="E528" t="n">
-        <v>1.06</v>
+        <v>1.039</v>
       </c>
       <c r="F528" t="n">
-        <v>1.73</v>
+        <v>1.707</v>
       </c>
       <c r="G528" t="n">
-        <v>2.142</v>
+        <v>2.149</v>
       </c>
       <c r="H528" t="n">
-        <v>2.175</v>
+        <v>2.182</v>
       </c>
       <c r="I528" t="n">
-        <v>2.247</v>
+        <v>2.252</v>
       </c>
       <c r="J528" t="n">
-        <v>2.29</v>
+        <v>2.299</v>
       </c>
       <c r="K528" t="n">
-        <v>2.301</v>
+        <v>2.313</v>
       </c>
       <c r="L528" t="n">
-        <v>2.395</v>
+        <v>2.407</v>
       </c>
       <c r="M528" t="n">
-        <v>2.535</v>
+        <v>2.539</v>
       </c>
       <c r="N528" t="n">
-        <v>2.471</v>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="E529" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2.363</v>
+      </c>
+      <c r="H529" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="I529" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="J529" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="K529" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L529" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="M529" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="N529" t="n">
+        <v>2.571</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -23660,43 +23660,43 @@
         <v>44644</v>
       </c>
       <c r="B528" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="C528" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="D528" t="n">
-        <v>0.526</v>
+        <v>0.55</v>
       </c>
       <c r="E528" t="n">
-        <v>1.039</v>
+        <v>1.06</v>
       </c>
       <c r="F528" t="n">
-        <v>1.707</v>
+        <v>1.73</v>
       </c>
       <c r="G528" t="n">
-        <v>2.149</v>
+        <v>2.142</v>
       </c>
       <c r="H528" t="n">
-        <v>2.182</v>
+        <v>2.175</v>
       </c>
       <c r="I528" t="n">
-        <v>2.252</v>
+        <v>2.247</v>
       </c>
       <c r="J528" t="n">
-        <v>2.299</v>
+        <v>2.29</v>
       </c>
       <c r="K528" t="n">
-        <v>2.313</v>
+        <v>2.301</v>
       </c>
       <c r="L528" t="n">
-        <v>2.407</v>
+        <v>2.395</v>
       </c>
       <c r="M528" t="n">
-        <v>2.539</v>
+        <v>2.535</v>
       </c>
       <c r="N528" t="n">
-        <v>2.48</v>
+        <v>2.471</v>
       </c>
     </row>
     <row r="529">
@@ -23704,43 +23704,43 @@
         <v>44645</v>
       </c>
       <c r="B529" t="n">
-        <v>0.356</v>
+        <v>0.37</v>
       </c>
       <c r="C529" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="D529" t="n">
-        <v>0.541</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E529" t="n">
-        <v>1.099</v>
+        <v>1.12</v>
       </c>
       <c r="F529" t="n">
-        <v>1.806</v>
+        <v>1.83</v>
       </c>
       <c r="G529" t="n">
-        <v>2.363</v>
+        <v>2.354</v>
       </c>
       <c r="H529" t="n">
-        <v>2.391</v>
+        <v>2.382</v>
       </c>
       <c r="I529" t="n">
-        <v>2.465</v>
+        <v>2.457</v>
       </c>
       <c r="J529" t="n">
-        <v>2.507</v>
+        <v>2.496</v>
       </c>
       <c r="K529" t="n">
-        <v>2.51</v>
+        <v>2.496</v>
       </c>
       <c r="L529" t="n">
-        <v>2.559</v>
+        <v>2.545</v>
       </c>
       <c r="M529" t="n">
-        <v>2.634</v>
+        <v>2.631</v>
       </c>
       <c r="N529" t="n">
-        <v>2.571</v>
+        <v>2.558</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N529"/>
+  <dimension ref="A1:N530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23743,6 +23743,50 @@
         <v>2.558</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F530" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="H530" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="I530" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="J530" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="K530" t="n">
+        <v>2.459</v>
+      </c>
+      <c r="L530" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="M530" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="N530" t="n">
+        <v>2.498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N530"/>
+  <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23787,6 +23787,50 @@
         <v>2.498</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F531" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2.344</v>
+      </c>
+      <c r="H531" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I531" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="J531" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="K531" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="L531" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="M531" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="N531" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N531"/>
+  <dimension ref="A1:N532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23831,6 +23831,50 @@
         <v>2.47</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="H532" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="I532" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="J532" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="K532" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="L532" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="M532" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="N532" t="n">
+        <v>2.412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N532"/>
+  <dimension ref="A1:N533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23875,6 +23875,50 @@
         <v>2.412</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2.291</v>
+      </c>
+      <c r="H533" t="n">
+        <v>2.297</v>
+      </c>
+      <c r="I533" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="J533" t="n">
+        <v>2.408</v>
+      </c>
+      <c r="K533" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="L533" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="M533" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="N533" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N533"/>
+  <dimension ref="A1:N534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23919,6 +23919,50 @@
         <v>2.38</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="H534" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="I534" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J534" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="K534" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="L534" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="M534" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="N534" t="n">
+        <v>2.367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N534"/>
+  <dimension ref="A1:N535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23963,6 +23963,50 @@
         <v>2.367</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="H535" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="I535" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="J535" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="K535" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="L535" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="M535" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N535" t="n">
+        <v>2.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N535"/>
+  <dimension ref="A1:N536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24007,6 +24007,50 @@
         <v>2.375</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="H536" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="I536" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="J536" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K536" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L536" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="M536" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="N536" t="n">
+        <v>2.443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N536"/>
+  <dimension ref="A1:N537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24015,40 +24015,84 @@
         <v>0.39</v>
       </c>
       <c r="C536" t="n">
-        <v>0.57</v>
+        <v>0.549</v>
       </c>
       <c r="D536" t="n">
-        <v>0.7</v>
+        <v>0.677</v>
       </c>
       <c r="E536" t="n">
-        <v>1.36</v>
+        <v>1.342</v>
       </c>
       <c r="F536" t="n">
-        <v>2</v>
+        <v>1.976</v>
       </c>
       <c r="G536" t="n">
-        <v>2.376</v>
+        <v>2.385</v>
       </c>
       <c r="H536" t="n">
-        <v>2.413</v>
+        <v>2.414</v>
       </c>
       <c r="I536" t="n">
-        <v>2.491</v>
+        <v>2.501</v>
       </c>
       <c r="J536" t="n">
-        <v>2.54</v>
+        <v>2.555</v>
       </c>
       <c r="K536" t="n">
-        <v>2.5</v>
+        <v>2.514</v>
       </c>
       <c r="L536" t="n">
-        <v>2.516</v>
+        <v>2.53</v>
       </c>
       <c r="M536" t="n">
-        <v>2.538</v>
+        <v>2.55</v>
       </c>
       <c r="N536" t="n">
-        <v>2.443</v>
+        <v>2.454</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="E537" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.355</v>
+      </c>
+      <c r="H537" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="J537" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="K537" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="L537" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="M537" t="n">
+        <v>2.544</v>
+      </c>
+      <c r="N537" t="n">
+        <v>2.442</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N537"/>
+  <dimension ref="A1:N538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24015,40 +24015,40 @@
         <v>0.39</v>
       </c>
       <c r="C536" t="n">
-        <v>0.549</v>
+        <v>0.57</v>
       </c>
       <c r="D536" t="n">
-        <v>0.677</v>
+        <v>0.7</v>
       </c>
       <c r="E536" t="n">
-        <v>1.342</v>
+        <v>1.36</v>
       </c>
       <c r="F536" t="n">
-        <v>1.976</v>
+        <v>2</v>
       </c>
       <c r="G536" t="n">
-        <v>2.385</v>
+        <v>2.376</v>
       </c>
       <c r="H536" t="n">
-        <v>2.414</v>
+        <v>2.413</v>
       </c>
       <c r="I536" t="n">
-        <v>2.501</v>
+        <v>2.491</v>
       </c>
       <c r="J536" t="n">
-        <v>2.555</v>
+        <v>2.54</v>
       </c>
       <c r="K536" t="n">
-        <v>2.514</v>
+        <v>2.5</v>
       </c>
       <c r="L536" t="n">
-        <v>2.53</v>
+        <v>2.516</v>
       </c>
       <c r="M536" t="n">
-        <v>2.55</v>
+        <v>2.538</v>
       </c>
       <c r="N536" t="n">
-        <v>2.454</v>
+        <v>2.443</v>
       </c>
     </row>
     <row r="537">
@@ -24056,43 +24056,87 @@
         <v>44657</v>
       </c>
       <c r="B537" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="C537" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="D537" t="n">
-        <v>0.717</v>
+        <v>0.73</v>
       </c>
       <c r="E537" t="n">
-        <v>1.366</v>
+        <v>1.38</v>
       </c>
       <c r="F537" t="n">
-        <v>1.996</v>
+        <v>2.02</v>
       </c>
       <c r="G537" t="n">
-        <v>2.355</v>
+        <v>2.346</v>
       </c>
       <c r="H537" t="n">
-        <v>2.386</v>
+        <v>2.378</v>
       </c>
       <c r="I537" t="n">
-        <v>2.468</v>
+        <v>2.465</v>
       </c>
       <c r="J537" t="n">
-        <v>2.523</v>
+        <v>2.509</v>
       </c>
       <c r="K537" t="n">
-        <v>2.481</v>
+        <v>2.469</v>
       </c>
       <c r="L537" t="n">
-        <v>2.529</v>
+        <v>2.515</v>
       </c>
       <c r="M537" t="n">
-        <v>2.544</v>
+        <v>2.532</v>
       </c>
       <c r="N537" t="n">
-        <v>2.442</v>
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F538" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="H538" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="J538" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="K538" t="n">
+        <v>2.499</v>
+      </c>
+      <c r="L538" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="M538" t="n">
+        <v>2.615</v>
+      </c>
+      <c r="N538" t="n">
+        <v>2.514</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N538"/>
+  <dimension ref="A1:N539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24139,6 +24139,50 @@
         <v>2.514</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="H539" t="n">
+        <v>2.479</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="J539" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="K539" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="L539" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="M539" t="n">
+        <v>2.674</v>
+      </c>
+      <c r="N539" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N539"/>
+  <dimension ref="A1:N540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24183,6 +24183,50 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="H540" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="I540" t="n">
+        <v>2.579</v>
+      </c>
+      <c r="J540" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="K540" t="n">
+        <v>2.607</v>
+      </c>
+      <c r="L540" t="n">
+        <v>2.699</v>
+      </c>
+      <c r="M540" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="N540" t="n">
+        <v>2.643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N540"/>
+  <dimension ref="A1:N541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24227,6 +24227,50 @@
         <v>2.643</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2.349</v>
+      </c>
+      <c r="H541" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J541" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="K541" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="L541" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="M541" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="N541" t="n">
+        <v>2.621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N541"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24271,6 +24271,50 @@
         <v>2.621</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F542" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="H542" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="I542" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="J542" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="K542" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="L542" t="n">
+        <v>2.636</v>
+      </c>
+      <c r="M542" t="n">
+        <v>2.677</v>
+      </c>
+      <c r="N542" t="n">
+        <v>2.608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N542"/>
+  <dimension ref="A1:N543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24315,6 +24315,50 @@
         <v>2.608</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E543" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="H543" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="I543" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="J543" t="n">
+        <v>2.651</v>
+      </c>
+      <c r="K543" t="n">
+        <v>2.628</v>
+      </c>
+      <c r="L543" t="n">
+        <v>2.775</v>
+      </c>
+      <c r="M543" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="N543" t="n">
+        <v>2.718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -24320,43 +24320,43 @@
         <v>44665</v>
       </c>
       <c r="B543" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="C543" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="D543" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E543" t="n">
-        <v>1.44</v>
+        <v>1.427</v>
       </c>
       <c r="F543" t="n">
-        <v>2.07</v>
+        <v>2.047</v>
       </c>
       <c r="G543" t="n">
-        <v>2.417</v>
+        <v>2.427</v>
       </c>
       <c r="H543" t="n">
-        <v>2.466</v>
+        <v>2.476</v>
       </c>
       <c r="I543" t="n">
-        <v>2.577</v>
+        <v>2.589</v>
       </c>
       <c r="J543" t="n">
-        <v>2.651</v>
+        <v>2.668</v>
       </c>
       <c r="K543" t="n">
-        <v>2.628</v>
+        <v>2.644</v>
       </c>
       <c r="L543" t="n">
-        <v>2.775</v>
+        <v>2.792</v>
       </c>
       <c r="M543" t="n">
-        <v>2.793</v>
+        <v>2.809</v>
       </c>
       <c r="N543" t="n">
-        <v>2.718</v>
+        <v>2.734</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24320,43 +24320,87 @@
         <v>44665</v>
       </c>
       <c r="B543" t="n">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
       <c r="C543" t="n">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
       <c r="D543" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E543" t="n">
-        <v>1.427</v>
+        <v>1.44</v>
       </c>
       <c r="F543" t="n">
-        <v>2.047</v>
+        <v>2.07</v>
       </c>
       <c r="G543" t="n">
-        <v>2.427</v>
+        <v>2.417</v>
       </c>
       <c r="H543" t="n">
-        <v>2.476</v>
+        <v>2.466</v>
       </c>
       <c r="I543" t="n">
-        <v>2.589</v>
+        <v>2.577</v>
       </c>
       <c r="J543" t="n">
-        <v>2.668</v>
+        <v>2.651</v>
       </c>
       <c r="K543" t="n">
-        <v>2.644</v>
+        <v>2.628</v>
       </c>
       <c r="L543" t="n">
-        <v>2.792</v>
+        <v>2.775</v>
       </c>
       <c r="M543" t="n">
-        <v>2.809</v>
+        <v>2.793</v>
       </c>
       <c r="N543" t="n">
-        <v>2.734</v>
+        <v>2.718</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E544" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F544" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="H544" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="I544" t="n">
+        <v>2.593</v>
+      </c>
+      <c r="J544" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="K544" t="n">
+        <v>2.653</v>
+      </c>
+      <c r="L544" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="M544" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="N544" t="n">
+        <v>2.754</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N544"/>
+  <dimension ref="A1:N545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24403,6 +24403,50 @@
         <v>2.754</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E545" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H545" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="I545" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="J545" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="K545" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="L545" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="M545" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="N545" t="n">
+        <v>2.776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N545"/>
+  <dimension ref="A1:N546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24447,6 +24447,50 @@
         <v>2.776</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="F546" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2.583</v>
+      </c>
+      <c r="H546" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="J546" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="K546" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="L546" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="M546" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="N546" t="n">
+        <v>2.783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N546"/>
+  <dimension ref="A1:N547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24452,43 +24452,87 @@
         <v>44671</v>
       </c>
       <c r="B546" t="n">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="C546" t="n">
         <v>0.86</v>
       </c>
       <c r="D546" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="E546" t="n">
-        <v>1.558</v>
+        <v>1.57</v>
       </c>
       <c r="F546" t="n">
-        <v>2.207</v>
+        <v>2.23</v>
       </c>
       <c r="G546" t="n">
-        <v>2.583</v>
+        <v>2.572</v>
       </c>
       <c r="H546" t="n">
-        <v>2.645</v>
+        <v>2.634</v>
       </c>
       <c r="I546" t="n">
-        <v>2.727</v>
+        <v>2.714</v>
       </c>
       <c r="J546" t="n">
-        <v>2.765</v>
+        <v>2.748</v>
       </c>
       <c r="K546" t="n">
-        <v>2.741</v>
+        <v>2.725</v>
       </c>
       <c r="L546" t="n">
-        <v>2.833</v>
+        <v>2.817</v>
       </c>
       <c r="M546" t="n">
-        <v>2.861</v>
+        <v>2.844</v>
       </c>
       <c r="N546" t="n">
-        <v>2.783</v>
+        <v>2.768</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E547" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F547" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="H547" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2.787</v>
+      </c>
+      <c r="J547" t="n">
+        <v>2.822</v>
+      </c>
+      <c r="K547" t="n">
+        <v>2.797</v>
+      </c>
+      <c r="L547" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="M547" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="N547" t="n">
+        <v>2.838</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N547"/>
+  <dimension ref="A1:N548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24535,6 +24535,50 @@
         <v>2.838</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E548" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F548" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H548" t="n">
+        <v>2.699</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="J548" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="K548" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L548" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="M548" t="n">
+        <v>2.907</v>
+      </c>
+      <c r="N548" t="n">
+        <v>2.824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N548"/>
+  <dimension ref="A1:N549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24579,6 +24579,50 @@
         <v>2.824</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F549" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="H549" t="n">
+        <v>2.623</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="J549" t="n">
+        <v>2.706</v>
+      </c>
+      <c r="K549" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L549" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="M549" t="n">
+        <v>2.853</v>
+      </c>
+      <c r="N549" t="n">
+        <v>2.776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N549"/>
+  <dimension ref="A1:N550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24605,10 +24605,10 @@
         <v>2.623</v>
       </c>
       <c r="I549" t="n">
-        <v>2.698</v>
+        <v>2.686</v>
       </c>
       <c r="J549" t="n">
-        <v>2.706</v>
+        <v>2.723</v>
       </c>
       <c r="K549" t="n">
         <v>2.7</v>
@@ -24617,10 +24617,54 @@
         <v>2.818</v>
       </c>
       <c r="M549" t="n">
-        <v>2.853</v>
+        <v>2.87</v>
       </c>
       <c r="N549" t="n">
         <v>2.776</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E550" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F550" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="H550" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2.573</v>
+      </c>
+      <c r="J550" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="K550" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="L550" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="M550" t="n">
+        <v>2.798</v>
+      </c>
+      <c r="N550" t="n">
+        <v>2.717</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N550"/>
+  <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24584,7 +24584,7 @@
         <v>44676</v>
       </c>
       <c r="B549" t="n">
-        <v>0.855</v>
+        <v>0.83</v>
       </c>
       <c r="C549" t="n">
         <v>0.863</v>
@@ -24602,22 +24602,22 @@
         <v>2.557</v>
       </c>
       <c r="H549" t="n">
-        <v>2.623</v>
+        <v>2.62</v>
       </c>
       <c r="I549" t="n">
         <v>2.686</v>
       </c>
       <c r="J549" t="n">
-        <v>2.723</v>
+        <v>2.706</v>
       </c>
       <c r="K549" t="n">
         <v>2.7</v>
       </c>
       <c r="L549" t="n">
-        <v>2.818</v>
+        <v>2.801</v>
       </c>
       <c r="M549" t="n">
-        <v>2.87</v>
+        <v>2.853</v>
       </c>
       <c r="N549" t="n">
         <v>2.776</v>
@@ -24637,7 +24637,7 @@
         <v>1.33</v>
       </c>
       <c r="E550" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="F550" t="n">
         <v>2.273</v>
@@ -24652,19 +24652,63 @@
         <v>2.573</v>
       </c>
       <c r="J550" t="n">
-        <v>2.602</v>
+        <v>2.587</v>
       </c>
       <c r="K550" t="n">
         <v>2.567</v>
       </c>
       <c r="L550" t="n">
-        <v>2.718</v>
+        <v>2.703</v>
       </c>
       <c r="M550" t="n">
         <v>2.798</v>
       </c>
       <c r="N550" t="n">
         <v>2.717</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="E551" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F551" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="H551" t="n">
+        <v>2.568</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="J551" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K551" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="L551" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M551" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="N551" t="n">
+        <v>2.793</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N551"/>
+  <dimension ref="A1:N552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24631,7 +24631,7 @@
         <v>0.83</v>
       </c>
       <c r="C550" t="n">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="D550" t="n">
         <v>1.33</v>
@@ -24649,7 +24649,7 @@
         <v>2.503</v>
       </c>
       <c r="I550" t="n">
-        <v>2.573</v>
+        <v>2.562</v>
       </c>
       <c r="J550" t="n">
         <v>2.587</v>
@@ -24664,7 +24664,7 @@
         <v>2.798</v>
       </c>
       <c r="N550" t="n">
-        <v>2.717</v>
+        <v>2.703</v>
       </c>
     </row>
     <row r="551">
@@ -24672,25 +24672,25 @@
         <v>44678</v>
       </c>
       <c r="B551" t="n">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="C551" t="n">
         <v>0.98</v>
       </c>
       <c r="D551" t="n">
-        <v>1.372</v>
+        <v>1.38</v>
       </c>
       <c r="E551" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="F551" t="n">
         <v>2.35</v>
       </c>
       <c r="G551" t="n">
-        <v>2.516</v>
+        <v>2.506</v>
       </c>
       <c r="H551" t="n">
-        <v>2.568</v>
+        <v>2.557</v>
       </c>
       <c r="I551" t="n">
         <v>2.629</v>
@@ -24699,16 +24699,60 @@
         <v>2.66</v>
       </c>
       <c r="K551" t="n">
-        <v>2.652</v>
+        <v>2.668</v>
       </c>
       <c r="L551" t="n">
-        <v>2.8</v>
+        <v>2.816</v>
       </c>
       <c r="M551" t="n">
-        <v>2.888</v>
+        <v>2.871</v>
       </c>
       <c r="N551" t="n">
-        <v>2.793</v>
+        <v>2.809</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="H552" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2.633</v>
+      </c>
+      <c r="J552" t="n">
+        <v>2.662</v>
+      </c>
+      <c r="K552" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="L552" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="M552" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="N552" t="n">
+        <v>2.752</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N552"/>
+  <dimension ref="A1:N553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24593,7 +24593,7 @@
         <v>1.34</v>
       </c>
       <c r="E549" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="F549" t="n">
         <v>2.32</v>
@@ -24611,7 +24611,7 @@
         <v>2.706</v>
       </c>
       <c r="K549" t="n">
-        <v>2.7</v>
+        <v>2.684</v>
       </c>
       <c r="L549" t="n">
         <v>2.801</v>
@@ -24640,7 +24640,7 @@
         <v>1.69</v>
       </c>
       <c r="F550" t="n">
-        <v>2.273</v>
+        <v>2.29</v>
       </c>
       <c r="G550" t="n">
         <v>2.438</v>
@@ -24661,7 +24661,7 @@
         <v>2.703</v>
       </c>
       <c r="M550" t="n">
-        <v>2.798</v>
+        <v>2.783</v>
       </c>
       <c r="N550" t="n">
         <v>2.703</v>
@@ -24708,7 +24708,7 @@
         <v>2.871</v>
       </c>
       <c r="N551" t="n">
-        <v>2.809</v>
+        <v>2.793</v>
       </c>
     </row>
     <row r="552">
@@ -24719,31 +24719,31 @@
         <v>0.864</v>
       </c>
       <c r="C552" t="n">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
       <c r="D552" t="n">
-        <v>1.41</v>
+        <v>1.406</v>
       </c>
       <c r="E552" t="n">
         <v>1.798</v>
       </c>
       <c r="F552" t="n">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="G552" t="n">
-        <v>2.536</v>
+        <v>2.526</v>
       </c>
       <c r="H552" t="n">
-        <v>2.576</v>
+        <v>2.587</v>
       </c>
       <c r="I552" t="n">
-        <v>2.633</v>
+        <v>2.645</v>
       </c>
       <c r="J552" t="n">
-        <v>2.662</v>
+        <v>2.678</v>
       </c>
       <c r="K552" t="n">
-        <v>2.659</v>
+        <v>2.675</v>
       </c>
       <c r="L552" t="n">
         <v>2.806</v>
@@ -24752,7 +24752,51 @@
         <v>2.839</v>
       </c>
       <c r="N552" t="n">
-        <v>2.752</v>
+        <v>2.767</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E553" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F553" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="H553" t="n">
+        <v>2.668</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="J553" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="K553" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="L553" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="M553" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="N553" t="n">
+        <v>2.807</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -24587,7 +24587,7 @@
         <v>0.83</v>
       </c>
       <c r="C549" t="n">
-        <v>0.863</v>
+        <v>0.86</v>
       </c>
       <c r="D549" t="n">
         <v>1.34</v>
@@ -24672,7 +24672,7 @@
         <v>44678</v>
       </c>
       <c r="B551" t="n">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="C551" t="n">
         <v>0.98</v>
@@ -24702,7 +24702,7 @@
         <v>2.668</v>
       </c>
       <c r="L551" t="n">
-        <v>2.816</v>
+        <v>2.8</v>
       </c>
       <c r="M551" t="n">
         <v>2.871</v>
@@ -24722,7 +24722,7 @@
         <v>0.96</v>
       </c>
       <c r="D552" t="n">
-        <v>1.406</v>
+        <v>1.41</v>
       </c>
       <c r="E552" t="n">
         <v>1.798</v>
@@ -24734,25 +24734,25 @@
         <v>2.526</v>
       </c>
       <c r="H552" t="n">
-        <v>2.587</v>
+        <v>2.576</v>
       </c>
       <c r="I552" t="n">
         <v>2.645</v>
       </c>
       <c r="J552" t="n">
-        <v>2.678</v>
+        <v>2.662</v>
       </c>
       <c r="K552" t="n">
         <v>2.675</v>
       </c>
       <c r="L552" t="n">
-        <v>2.806</v>
+        <v>2.787</v>
       </c>
       <c r="M552" t="n">
         <v>2.839</v>
       </c>
       <c r="N552" t="n">
-        <v>2.767</v>
+        <v>2.752</v>
       </c>
     </row>
     <row r="553">
@@ -24763,7 +24763,7 @@
         <v>0.86</v>
       </c>
       <c r="C553" t="n">
-        <v>0.904</v>
+        <v>0.95</v>
       </c>
       <c r="D553" t="n">
         <v>1.45</v>
@@ -24781,7 +24781,7 @@
         <v>2.668</v>
       </c>
       <c r="I553" t="n">
-        <v>2.744</v>
+        <v>2.731</v>
       </c>
       <c r="J553" t="n">
         <v>2.757</v>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -24699,7 +24699,7 @@
         <v>2.66</v>
       </c>
       <c r="K551" t="n">
-        <v>2.668</v>
+        <v>2.652</v>
       </c>
       <c r="L551" t="n">
         <v>2.8</v>
@@ -24725,7 +24725,7 @@
         <v>1.41</v>
       </c>
       <c r="E552" t="n">
-        <v>1.798</v>
+        <v>1.81</v>
       </c>
       <c r="F552" t="n">
         <v>2.37</v>
@@ -24763,40 +24763,40 @@
         <v>0.86</v>
       </c>
       <c r="C553" t="n">
-        <v>0.95</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="D553" t="n">
-        <v>1.45</v>
+        <v>1.443</v>
       </c>
       <c r="E553" t="n">
         <v>1.87</v>
       </c>
       <c r="F553" t="n">
-        <v>2.49</v>
+        <v>2.471</v>
       </c>
       <c r="G553" t="n">
-        <v>2.622</v>
+        <v>2.633</v>
       </c>
       <c r="H553" t="n">
-        <v>2.668</v>
+        <v>2.68</v>
       </c>
       <c r="I553" t="n">
-        <v>2.731</v>
+        <v>2.744</v>
       </c>
       <c r="J553" t="n">
-        <v>2.757</v>
+        <v>2.774</v>
       </c>
       <c r="K553" t="n">
         <v>2.769</v>
       </c>
       <c r="L553" t="n">
-        <v>2.872</v>
+        <v>2.889</v>
       </c>
       <c r="M553" t="n">
-        <v>2.915</v>
+        <v>2.932</v>
       </c>
       <c r="N553" t="n">
-        <v>2.807</v>
+        <v>2.823</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N553"/>
+  <dimension ref="A1:N554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24646,7 +24646,7 @@
         <v>2.438</v>
       </c>
       <c r="H550" t="n">
-        <v>2.503</v>
+        <v>2.492</v>
       </c>
       <c r="I550" t="n">
         <v>2.562</v>
@@ -24684,7 +24684,7 @@
         <v>1.78</v>
       </c>
       <c r="F551" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="G551" t="n">
         <v>2.506</v>
@@ -24728,7 +24728,7 @@
         <v>1.81</v>
       </c>
       <c r="F552" t="n">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="G552" t="n">
         <v>2.526</v>
@@ -24737,7 +24737,7 @@
         <v>2.576</v>
       </c>
       <c r="I552" t="n">
-        <v>2.645</v>
+        <v>2.633</v>
       </c>
       <c r="J552" t="n">
         <v>2.662</v>
@@ -24772,7 +24772,7 @@
         <v>1.87</v>
       </c>
       <c r="F553" t="n">
-        <v>2.471</v>
+        <v>2.49</v>
       </c>
       <c r="G553" t="n">
         <v>2.633</v>
@@ -24781,13 +24781,13 @@
         <v>2.68</v>
       </c>
       <c r="I553" t="n">
-        <v>2.744</v>
+        <v>2.731</v>
       </c>
       <c r="J553" t="n">
-        <v>2.774</v>
+        <v>2.757</v>
       </c>
       <c r="K553" t="n">
-        <v>2.769</v>
+        <v>2.752</v>
       </c>
       <c r="L553" t="n">
         <v>2.889</v>
@@ -24796,7 +24796,51 @@
         <v>2.932</v>
       </c>
       <c r="N553" t="n">
-        <v>2.823</v>
+        <v>2.807</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E554" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F554" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="K554" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="L554" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="M554" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="N554" t="n">
+        <v>2.891</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N554"/>
+  <dimension ref="A1:N555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24763,19 +24763,19 @@
         <v>0.86</v>
       </c>
       <c r="C553" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D553" t="n">
         <v>1.443</v>
       </c>
       <c r="E553" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F553" t="n">
         <v>2.49</v>
       </c>
       <c r="G553" t="n">
-        <v>2.633</v>
+        <v>2.622</v>
       </c>
       <c r="H553" t="n">
         <v>2.68</v>
@@ -24804,7 +24804,7 @@
         <v>44683</v>
       </c>
       <c r="B554" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C554" t="n">
         <v>0.949</v>
@@ -24828,19 +24828,63 @@
         <v>2.796</v>
       </c>
       <c r="J554" t="n">
-        <v>2.843</v>
+        <v>2.825</v>
       </c>
       <c r="K554" t="n">
-        <v>2.843</v>
+        <v>2.825</v>
       </c>
       <c r="L554" t="n">
-        <v>2.968</v>
+        <v>2.95</v>
       </c>
       <c r="M554" t="n">
         <v>2.99</v>
       </c>
       <c r="N554" t="n">
-        <v>2.891</v>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E555" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="J555" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="K555" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="L555" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="M555" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="N555" t="n">
+        <v>2.889</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24793,7 +24793,7 @@
         <v>2.889</v>
       </c>
       <c r="M553" t="n">
-        <v>2.932</v>
+        <v>2.915</v>
       </c>
       <c r="N553" t="n">
         <v>2.807</v>
@@ -24804,7 +24804,7 @@
         <v>44683</v>
       </c>
       <c r="B554" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C554" t="n">
         <v>0.949</v>
@@ -24813,7 +24813,7 @@
         <v>1.46</v>
       </c>
       <c r="E554" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F554" t="n">
         <v>2.511</v>
@@ -24825,7 +24825,7 @@
         <v>2.727</v>
       </c>
       <c r="I554" t="n">
-        <v>2.796</v>
+        <v>2.783</v>
       </c>
       <c r="J554" t="n">
         <v>2.825</v>
@@ -24848,7 +24848,7 @@
         <v>44684</v>
       </c>
       <c r="B555" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
       <c r="C555" t="n">
         <v>0.9389999999999999</v>
@@ -24857,7 +24857,7 @@
         <v>1.46</v>
       </c>
       <c r="E555" t="n">
-        <v>1.93</v>
+        <v>1.921</v>
       </c>
       <c r="F555" t="n">
         <v>2.531</v>
@@ -24866,7 +24866,7 @@
         <v>2.725</v>
       </c>
       <c r="H555" t="n">
-        <v>2.77</v>
+        <v>2.777</v>
       </c>
       <c r="I555" t="n">
         <v>2.832</v>
@@ -24875,16 +24875,60 @@
         <v>2.851</v>
       </c>
       <c r="K555" t="n">
-        <v>2.841</v>
+        <v>2.86</v>
       </c>
       <c r="L555" t="n">
-        <v>2.957</v>
+        <v>2.976</v>
       </c>
       <c r="M555" t="n">
         <v>3.016</v>
       </c>
       <c r="N555" t="n">
-        <v>2.889</v>
+        <v>2.872</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="E556" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="H556" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="J556" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="K556" t="n">
+        <v>2.772</v>
+      </c>
+      <c r="L556" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="M556" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="N556" t="n">
+        <v>2.895</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N556"/>
+  <dimension ref="A1:N557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24892,7 +24892,7 @@
         <v>44685</v>
       </c>
       <c r="B556" t="n">
-        <v>0.895</v>
+        <v>0.917</v>
       </c>
       <c r="C556" t="n">
         <v>0.929</v>
@@ -24901,13 +24901,13 @@
         <v>1.445</v>
       </c>
       <c r="E556" t="n">
-        <v>1.86</v>
+        <v>1.849</v>
       </c>
       <c r="F556" t="n">
         <v>2.461</v>
       </c>
       <c r="G556" t="n">
-        <v>2.616</v>
+        <v>2.627</v>
       </c>
       <c r="H556" t="n">
         <v>2.681</v>
@@ -24916,10 +24916,10 @@
         <v>2.743</v>
       </c>
       <c r="J556" t="n">
-        <v>2.767</v>
+        <v>2.785</v>
       </c>
       <c r="K556" t="n">
-        <v>2.772</v>
+        <v>2.79</v>
       </c>
       <c r="L556" t="n">
         <v>2.944</v>
@@ -24929,6 +24929,50 @@
       </c>
       <c r="N556" t="n">
         <v>2.895</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="E557" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F557" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2.706</v>
+      </c>
+      <c r="H557" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2.835</v>
+      </c>
+      <c r="J557" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="K557" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L557" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="M557" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="N557" t="n">
+        <v>2.98</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N557"/>
+  <dimension ref="A1:N558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24975,6 +24975,50 @@
         <v>2.98</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="E558" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="H558" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="J558" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="K558" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="L558" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="M558" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="N558" t="n">
+        <v>3.069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N558"/>
+  <dimension ref="A1:N559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25019,6 +25019,50 @@
         <v>3.069</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F559" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H559" t="n">
+        <v>2.691</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J559" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="K559" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="L559" t="n">
+        <v>3.042</v>
+      </c>
+      <c r="M559" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="N559" t="n">
+        <v>2.994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N559"/>
+  <dimension ref="A1:N560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.318</v>
       </c>
       <c r="C21" t="n">
-        <v>0.358</v>
+        <v>0.45</v>
       </c>
       <c r="D21" t="n">
         <v>0.373</v>
@@ -1399,7 +1399,7 @@
         <v>0.459</v>
       </c>
       <c r="C22" t="n">
-        <v>0.463</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="n">
         <v>0.455</v>
@@ -1408,7 +1408,7 @@
         <v>0.43</v>
       </c>
       <c r="F22" t="n">
-        <v>0.371</v>
+        <v>0.39</v>
       </c>
       <c r="G22" t="n">
         <v>0.637</v>
@@ -24807,7 +24807,7 @@
         <v>0.87</v>
       </c>
       <c r="C554" t="n">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
       <c r="D554" t="n">
         <v>1.46</v>
@@ -24816,13 +24816,13 @@
         <v>1.9</v>
       </c>
       <c r="F554" t="n">
-        <v>2.511</v>
+        <v>2.53</v>
       </c>
       <c r="G554" t="n">
         <v>2.661</v>
       </c>
       <c r="H554" t="n">
-        <v>2.727</v>
+        <v>2.714</v>
       </c>
       <c r="I554" t="n">
         <v>2.783</v>
@@ -24848,40 +24848,40 @@
         <v>44684</v>
       </c>
       <c r="B555" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="C555" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D555" t="n">
         <v>1.46</v>
       </c>
       <c r="E555" t="n">
-        <v>1.921</v>
+        <v>1.93</v>
       </c>
       <c r="F555" t="n">
-        <v>2.531</v>
+        <v>2.55</v>
       </c>
       <c r="G555" t="n">
         <v>2.725</v>
       </c>
       <c r="H555" t="n">
-        <v>2.777</v>
+        <v>2.77</v>
       </c>
       <c r="I555" t="n">
-        <v>2.832</v>
+        <v>2.817</v>
       </c>
       <c r="J555" t="n">
         <v>2.851</v>
       </c>
       <c r="K555" t="n">
-        <v>2.86</v>
+        <v>2.841</v>
       </c>
       <c r="L555" t="n">
-        <v>2.976</v>
+        <v>2.957</v>
       </c>
       <c r="M555" t="n">
-        <v>3.016</v>
+        <v>2.997</v>
       </c>
       <c r="N555" t="n">
         <v>2.872</v>
@@ -24892,43 +24892,43 @@
         <v>44685</v>
       </c>
       <c r="B556" t="n">
-        <v>0.917</v>
+        <v>0.895</v>
       </c>
       <c r="C556" t="n">
-        <v>0.929</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D556" t="n">
-        <v>1.445</v>
+        <v>1.45</v>
       </c>
       <c r="E556" t="n">
-        <v>1.849</v>
+        <v>1.86</v>
       </c>
       <c r="F556" t="n">
-        <v>2.461</v>
+        <v>2.48</v>
       </c>
       <c r="G556" t="n">
-        <v>2.627</v>
+        <v>2.616</v>
       </c>
       <c r="H556" t="n">
-        <v>2.681</v>
+        <v>2.669</v>
       </c>
       <c r="I556" t="n">
-        <v>2.743</v>
+        <v>2.73</v>
       </c>
       <c r="J556" t="n">
-        <v>2.785</v>
+        <v>2.767</v>
       </c>
       <c r="K556" t="n">
-        <v>2.79</v>
+        <v>2.772</v>
       </c>
       <c r="L556" t="n">
-        <v>2.944</v>
+        <v>2.926</v>
       </c>
       <c r="M556" t="n">
-        <v>3.022</v>
+        <v>3.003</v>
       </c>
       <c r="N556" t="n">
-        <v>2.895</v>
+        <v>2.878</v>
       </c>
     </row>
     <row r="557">
@@ -24936,43 +24936,43 @@
         <v>44686</v>
       </c>
       <c r="B557" t="n">
-        <v>0.864</v>
+        <v>0.86</v>
       </c>
       <c r="C557" t="n">
-        <v>0.919</v>
+        <v>0.93</v>
       </c>
       <c r="D557" t="n">
-        <v>1.455</v>
+        <v>1.46</v>
       </c>
       <c r="E557" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F557" t="n">
-        <v>2.481</v>
+        <v>2.5</v>
       </c>
       <c r="G557" t="n">
-        <v>2.706</v>
+        <v>2.717</v>
       </c>
       <c r="H557" t="n">
-        <v>2.759</v>
+        <v>2.754</v>
       </c>
       <c r="I557" t="n">
-        <v>2.835</v>
+        <v>2.82</v>
       </c>
       <c r="J557" t="n">
-        <v>2.884</v>
+        <v>2.864</v>
       </c>
       <c r="K557" t="n">
-        <v>2.9</v>
+        <v>2.881</v>
       </c>
       <c r="L557" t="n">
-        <v>3.047</v>
+        <v>3.027</v>
       </c>
       <c r="M557" t="n">
-        <v>3.102</v>
+        <v>3.082</v>
       </c>
       <c r="N557" t="n">
-        <v>2.98</v>
+        <v>2.961</v>
       </c>
     </row>
     <row r="558">
@@ -24980,43 +24980,43 @@
         <v>44687</v>
       </c>
       <c r="B558" t="n">
-        <v>0.886</v>
+        <v>0.87</v>
       </c>
       <c r="C558" t="n">
-        <v>0.919</v>
+        <v>0.93</v>
       </c>
       <c r="D558" t="n">
-        <v>1.441</v>
+        <v>1.45</v>
       </c>
       <c r="E558" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F558" t="n">
-        <v>2.481</v>
+        <v>2.5</v>
       </c>
       <c r="G558" t="n">
-        <v>2.728</v>
+        <v>2.716</v>
       </c>
       <c r="H558" t="n">
-        <v>2.796</v>
+        <v>2.783</v>
       </c>
       <c r="I558" t="n">
-        <v>2.875</v>
+        <v>2.86</v>
       </c>
       <c r="J558" t="n">
-        <v>2.938</v>
+        <v>2.919</v>
       </c>
       <c r="K558" t="n">
-        <v>2.971</v>
+        <v>2.951</v>
       </c>
       <c r="L558" t="n">
-        <v>3.109</v>
+        <v>3.125</v>
       </c>
       <c r="M558" t="n">
-        <v>3.196</v>
+        <v>3.175</v>
       </c>
       <c r="N558" t="n">
-        <v>3.069</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="559">
@@ -25024,43 +25024,87 @@
         <v>44690</v>
       </c>
       <c r="B559" t="n">
-        <v>0.855</v>
+        <v>0.85</v>
       </c>
       <c r="C559" t="n">
-        <v>0.894</v>
+        <v>0.92</v>
       </c>
       <c r="D559" t="n">
-        <v>1.416</v>
+        <v>1.42</v>
       </c>
       <c r="E559" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F559" t="n">
-        <v>2.471</v>
+        <v>2.48</v>
       </c>
       <c r="G559" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="H559" t="n">
-        <v>2.691</v>
+        <v>2.679</v>
       </c>
       <c r="I559" t="n">
-        <v>2.75</v>
+        <v>2.736</v>
       </c>
       <c r="J559" t="n">
-        <v>2.818</v>
+        <v>2.8</v>
       </c>
       <c r="K559" t="n">
-        <v>2.859</v>
+        <v>2.84</v>
       </c>
       <c r="L559" t="n">
-        <v>3.042</v>
+        <v>3.022</v>
       </c>
       <c r="M559" t="n">
-        <v>3.117</v>
+        <v>3.097</v>
       </c>
       <c r="N559" t="n">
-        <v>2.994</v>
+        <v>2.976</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E560" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F560" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="H560" t="n">
+        <v>2.703</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="J560" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="K560" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="L560" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M560" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="N560" t="n">
+        <v>2.979</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N560"/>
+  <dimension ref="A1:N561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25107,6 +25107,50 @@
         <v>2.979</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E561" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F561" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H561" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="J561" t="n">
+        <v>2.837</v>
+      </c>
+      <c r="K561" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="L561" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="M561" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="N561" t="n">
+        <v>2.957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N561"/>
+  <dimension ref="A1:N562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25151,6 +25151,50 @@
         <v>2.957</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E562" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F562" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="H562" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2.674</v>
+      </c>
+      <c r="J562" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="K562" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L562" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="M562" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="N562" t="n">
+        <v>2.884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N562"/>
+  <dimension ref="A1:N563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25195,6 +25195,50 @@
         <v>2.884</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E563" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F563" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="H563" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="J563" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="K563" t="n">
+        <v>2.797</v>
+      </c>
+      <c r="L563" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="M563" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="N563" t="n">
+        <v>2.939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -25200,43 +25200,43 @@
         <v>44694</v>
       </c>
       <c r="B563" t="n">
-        <v>0.9</v>
+        <v>0.888</v>
       </c>
       <c r="C563" t="n">
-        <v>1.15</v>
+        <v>1.143</v>
       </c>
       <c r="D563" t="n">
-        <v>1.4</v>
+        <v>1.393</v>
       </c>
       <c r="E563" t="n">
-        <v>1.84</v>
+        <v>1.829</v>
       </c>
       <c r="F563" t="n">
-        <v>2.45</v>
+        <v>2.431</v>
       </c>
       <c r="G563" t="n">
-        <v>2.667</v>
+        <v>2.682</v>
       </c>
       <c r="H563" t="n">
         <v>2.696</v>
       </c>
       <c r="I563" t="n">
-        <v>2.717</v>
+        <v>2.73</v>
       </c>
       <c r="J563" t="n">
-        <v>2.778</v>
+        <v>2.796</v>
       </c>
       <c r="K563" t="n">
-        <v>2.797</v>
+        <v>2.815</v>
       </c>
       <c r="L563" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="M563" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="N563" t="n">
         <v>2.957</v>
-      </c>
-      <c r="M563" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="N563" t="n">
-        <v>2.939</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -25200,43 +25200,43 @@
         <v>44694</v>
       </c>
       <c r="B563" t="n">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
       <c r="C563" t="n">
-        <v>1.143</v>
+        <v>1.15</v>
       </c>
       <c r="D563" t="n">
-        <v>1.393</v>
+        <v>1.4</v>
       </c>
       <c r="E563" t="n">
-        <v>1.829</v>
+        <v>1.84</v>
       </c>
       <c r="F563" t="n">
-        <v>2.431</v>
+        <v>2.45</v>
       </c>
       <c r="G563" t="n">
-        <v>2.682</v>
+        <v>2.667</v>
       </c>
       <c r="H563" t="n">
         <v>2.696</v>
       </c>
       <c r="I563" t="n">
-        <v>2.73</v>
+        <v>2.717</v>
       </c>
       <c r="J563" t="n">
-        <v>2.796</v>
+        <v>2.778</v>
       </c>
       <c r="K563" t="n">
-        <v>2.815</v>
+        <v>2.797</v>
       </c>
       <c r="L563" t="n">
-        <v>2.977</v>
+        <v>2.957</v>
       </c>
       <c r="M563" t="n">
-        <v>3.075</v>
+        <v>3.056</v>
       </c>
       <c r="N563" t="n">
-        <v>2.957</v>
+        <v>2.939</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N563"/>
+  <dimension ref="A1:N564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25239,6 +25239,50 @@
         <v>2.939</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E564" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F564" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="H564" t="n">
+        <v>2.669</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="J564" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="K564" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="L564" t="n">
+        <v>2.925</v>
+      </c>
+      <c r="M564" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="N564" t="n">
+        <v>2.933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N564"/>
+  <dimension ref="A1:N565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25283,6 +25283,50 @@
         <v>2.933</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="E565" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F565" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="H565" t="n">
+        <v>2.802</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="J565" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="K565" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="L565" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="M565" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="N565" t="n">
+        <v>3.043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N565"/>
+  <dimension ref="A1:N566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25288,43 +25288,87 @@
         <v>44698</v>
       </c>
       <c r="B565" t="n">
-        <v>0.868</v>
+        <v>0.88</v>
       </c>
       <c r="C565" t="n">
         <v>1.11</v>
       </c>
       <c r="D565" t="n">
-        <v>1.364</v>
+        <v>1.37</v>
       </c>
       <c r="E565" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F565" t="n">
-        <v>2.462</v>
+        <v>2.48</v>
       </c>
       <c r="G565" t="n">
-        <v>2.783</v>
+        <v>2.767</v>
       </c>
       <c r="H565" t="n">
-        <v>2.802</v>
+        <v>2.788</v>
       </c>
       <c r="I565" t="n">
-        <v>2.832</v>
+        <v>2.817</v>
       </c>
       <c r="J565" t="n">
-        <v>2.892</v>
+        <v>2.873</v>
       </c>
       <c r="K565" t="n">
-        <v>2.91</v>
+        <v>2.891</v>
       </c>
       <c r="L565" t="n">
-        <v>3.046</v>
+        <v>3.026</v>
       </c>
       <c r="M565" t="n">
-        <v>3.164</v>
+        <v>3.144</v>
       </c>
       <c r="N565" t="n">
-        <v>3.043</v>
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E566" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F566" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="H566" t="n">
+        <v>2.781</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="J566" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="K566" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="L566" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="M566" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="N566" t="n">
+        <v>2.916</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N566"/>
+  <dimension ref="A1:N567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25332,43 +25332,87 @@
         <v>44699</v>
       </c>
       <c r="B566" t="n">
-        <v>0.88</v>
+        <v>0.868</v>
       </c>
       <c r="C566" t="n">
-        <v>1.1</v>
+        <v>1.094</v>
       </c>
       <c r="D566" t="n">
-        <v>1.38</v>
+        <v>1.375</v>
       </c>
       <c r="E566" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F566" t="n">
-        <v>2.53</v>
+        <v>2.512</v>
       </c>
       <c r="G566" t="n">
-        <v>2.757</v>
+        <v>2.774</v>
       </c>
       <c r="H566" t="n">
-        <v>2.781</v>
+        <v>2.784</v>
       </c>
       <c r="I566" t="n">
-        <v>2.79</v>
+        <v>2.804</v>
       </c>
       <c r="J566" t="n">
-        <v>2.839</v>
+        <v>2.858</v>
       </c>
       <c r="K566" t="n">
-        <v>2.844</v>
+        <v>2.862</v>
       </c>
       <c r="L566" t="n">
-        <v>2.947</v>
+        <v>2.966</v>
       </c>
       <c r="M566" t="n">
         <v>3.034</v>
       </c>
       <c r="N566" t="n">
-        <v>2.916</v>
+        <v>2.934</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1.083</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="H567" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="J567" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="K567" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="L567" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="M567" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N567" t="n">
+        <v>2.888</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N567"/>
+  <dimension ref="A1:N568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25332,43 +25332,43 @@
         <v>44699</v>
       </c>
       <c r="B566" t="n">
-        <v>0.868</v>
+        <v>0.88</v>
       </c>
       <c r="C566" t="n">
-        <v>1.094</v>
+        <v>1.1</v>
       </c>
       <c r="D566" t="n">
-        <v>1.375</v>
+        <v>1.38</v>
       </c>
       <c r="E566" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="F566" t="n">
-        <v>2.512</v>
+        <v>2.53</v>
       </c>
       <c r="G566" t="n">
-        <v>2.774</v>
+        <v>2.757</v>
       </c>
       <c r="H566" t="n">
-        <v>2.784</v>
+        <v>2.781</v>
       </c>
       <c r="I566" t="n">
-        <v>2.804</v>
+        <v>2.79</v>
       </c>
       <c r="J566" t="n">
-        <v>2.858</v>
+        <v>2.839</v>
       </c>
       <c r="K566" t="n">
-        <v>2.862</v>
+        <v>2.844</v>
       </c>
       <c r="L566" t="n">
-        <v>2.966</v>
+        <v>2.947</v>
       </c>
       <c r="M566" t="n">
         <v>3.034</v>
       </c>
       <c r="N566" t="n">
-        <v>2.934</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="567">
@@ -25376,43 +25376,87 @@
         <v>44700</v>
       </c>
       <c r="B567" t="n">
-        <v>0.869</v>
+        <v>0.88</v>
       </c>
       <c r="C567" t="n">
-        <v>1.083</v>
+        <v>1.1</v>
       </c>
       <c r="D567" t="n">
-        <v>1.353</v>
+        <v>1.36</v>
       </c>
       <c r="E567" t="n">
-        <v>1.885</v>
+        <v>1.9</v>
       </c>
       <c r="F567" t="n">
-        <v>2.483</v>
+        <v>2.5</v>
       </c>
       <c r="G567" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="H567" t="n">
         <v>2.718</v>
       </c>
-      <c r="H567" t="n">
-        <v>2.73</v>
-      </c>
       <c r="I567" t="n">
-        <v>2.737</v>
+        <v>2.735</v>
       </c>
       <c r="J567" t="n">
-        <v>2.789</v>
+        <v>2.772</v>
       </c>
       <c r="K567" t="n">
-        <v>2.789</v>
+        <v>2.772</v>
       </c>
       <c r="L567" t="n">
-        <v>2.901</v>
+        <v>2.882</v>
       </c>
       <c r="M567" t="n">
-        <v>3.01</v>
+        <v>2.991</v>
       </c>
       <c r="N567" t="n">
-        <v>2.888</v>
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E568" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F568" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2.644</v>
+      </c>
+      <c r="H568" t="n">
+        <v>2.659</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="J568" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="K568" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="L568" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="M568" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="N568" t="n">
+        <v>2.811</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N568"/>
+  <dimension ref="A1:N569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25459,6 +25459,50 @@
         <v>2.811</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E569" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2.583</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J569" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="K569" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="L569" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M569" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="N569" t="n">
+        <v>2.795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N569"/>
+  <dimension ref="A1:N570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25503,6 +25503,50 @@
         <v>2.795</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E570" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="H570" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="J570" t="n">
+        <v>2.634</v>
+      </c>
+      <c r="K570" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="L570" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="M570" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="N570" t="n">
+        <v>2.772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N570"/>
+  <dimension ref="A1:N571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25508,43 +25508,87 @@
         <v>44706</v>
       </c>
       <c r="B570" t="n">
-        <v>0.84</v>
+        <v>0.828</v>
       </c>
       <c r="C570" t="n">
-        <v>1.12</v>
+        <v>1.102</v>
       </c>
       <c r="D570" t="n">
         <v>1.47</v>
       </c>
       <c r="E570" t="n">
-        <v>1.9</v>
+        <v>1.895</v>
       </c>
       <c r="F570" t="n">
-        <v>2.5</v>
+        <v>2.481</v>
       </c>
       <c r="G570" t="n">
-        <v>2.541</v>
+        <v>2.547</v>
       </c>
       <c r="H570" t="n">
-        <v>2.558</v>
+        <v>2.559</v>
       </c>
       <c r="I570" t="n">
-        <v>2.572</v>
+        <v>2.583</v>
       </c>
       <c r="J570" t="n">
-        <v>2.634</v>
+        <v>2.651</v>
       </c>
       <c r="K570" t="n">
-        <v>2.646</v>
+        <v>2.662</v>
       </c>
       <c r="L570" t="n">
-        <v>2.774</v>
+        <v>2.79</v>
       </c>
       <c r="M570" t="n">
-        <v>2.893</v>
+        <v>2.911</v>
       </c>
       <c r="N570" t="n">
-        <v>2.772</v>
+        <v>2.789</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="E571" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F571" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="J571" t="n">
+        <v>2.658</v>
+      </c>
+      <c r="K571" t="n">
+        <v>2.677</v>
+      </c>
+      <c r="L571" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="M571" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="N571" t="n">
+        <v>2.828</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N571"/>
+  <dimension ref="A1:N572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25508,43 +25508,43 @@
         <v>44706</v>
       </c>
       <c r="B570" t="n">
-        <v>0.828</v>
+        <v>0.84</v>
       </c>
       <c r="C570" t="n">
-        <v>1.102</v>
+        <v>1.12</v>
       </c>
       <c r="D570" t="n">
         <v>1.47</v>
       </c>
       <c r="E570" t="n">
-        <v>1.895</v>
+        <v>1.9</v>
       </c>
       <c r="F570" t="n">
-        <v>2.481</v>
+        <v>2.5</v>
       </c>
       <c r="G570" t="n">
-        <v>2.547</v>
+        <v>2.541</v>
       </c>
       <c r="H570" t="n">
-        <v>2.559</v>
+        <v>2.558</v>
       </c>
       <c r="I570" t="n">
-        <v>2.583</v>
+        <v>2.572</v>
       </c>
       <c r="J570" t="n">
-        <v>2.651</v>
+        <v>2.634</v>
       </c>
       <c r="K570" t="n">
-        <v>2.662</v>
+        <v>2.646</v>
       </c>
       <c r="L570" t="n">
-        <v>2.79</v>
+        <v>2.774</v>
       </c>
       <c r="M570" t="n">
-        <v>2.911</v>
+        <v>2.893</v>
       </c>
       <c r="N570" t="n">
-        <v>2.789</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="571">
@@ -25552,43 +25552,87 @@
         <v>44707</v>
       </c>
       <c r="B571" t="n">
-        <v>0.838</v>
+        <v>0.84</v>
       </c>
       <c r="C571" t="n">
-        <v>1.115</v>
+        <v>1.12</v>
       </c>
       <c r="D571" t="n">
-        <v>1.466</v>
+        <v>1.47</v>
       </c>
       <c r="E571" t="n">
         <v>1.98</v>
       </c>
       <c r="F571" t="n">
-        <v>2.401</v>
+        <v>2.42</v>
       </c>
       <c r="G571" t="n">
-        <v>2.563</v>
+        <v>2.549</v>
       </c>
       <c r="H571" t="n">
-        <v>2.569</v>
+        <v>2.558</v>
       </c>
       <c r="I571" t="n">
-        <v>2.592</v>
+        <v>2.581</v>
       </c>
       <c r="J571" t="n">
-        <v>2.658</v>
+        <v>2.641</v>
       </c>
       <c r="K571" t="n">
-        <v>2.677</v>
+        <v>2.661</v>
       </c>
       <c r="L571" t="n">
-        <v>2.811</v>
+        <v>2.794</v>
       </c>
       <c r="M571" t="n">
-        <v>2.949</v>
+        <v>2.932</v>
       </c>
       <c r="N571" t="n">
-        <v>2.828</v>
+        <v>2.812</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E572" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F572" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J572" t="n">
+        <v>2.637</v>
+      </c>
+      <c r="K572" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="L572" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M572" t="n">
+        <v>2.916</v>
+      </c>
+      <c r="N572" t="n">
+        <v>2.792</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N572"/>
+  <dimension ref="A1:N573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25635,6 +25635,50 @@
         <v>2.792</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2</v>
+      </c>
+      <c r="F573" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="H573" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I573" t="n">
+        <v>2.631</v>
+      </c>
+      <c r="J573" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="K573" t="n">
+        <v>2.702</v>
+      </c>
+      <c r="L573" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="M573" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="N573" t="n">
+        <v>2.806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N573"/>
+  <dimension ref="A1:N574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25640,13 +25640,13 @@
         <v>44711</v>
       </c>
       <c r="B573" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C573" t="n">
-        <v>1.12</v>
+        <v>1.117</v>
       </c>
       <c r="D573" t="n">
-        <v>1.47</v>
+        <v>1.465</v>
       </c>
       <c r="E573" t="n">
         <v>2</v>
@@ -25655,28 +25655,72 @@
         <v>2.45</v>
       </c>
       <c r="G573" t="n">
-        <v>2.606</v>
+        <v>2.622</v>
       </c>
       <c r="H573" t="n">
-        <v>2.61</v>
+        <v>2.622</v>
       </c>
       <c r="I573" t="n">
-        <v>2.631</v>
+        <v>2.644</v>
       </c>
       <c r="J573" t="n">
-        <v>2.683</v>
+        <v>2.7</v>
       </c>
       <c r="K573" t="n">
-        <v>2.702</v>
+        <v>2.719</v>
       </c>
       <c r="L573" t="n">
-        <v>2.826</v>
+        <v>2.843</v>
       </c>
       <c r="M573" t="n">
-        <v>2.939</v>
+        <v>2.947</v>
       </c>
       <c r="N573" t="n">
-        <v>2.806</v>
+        <v>2.817</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.021</v>
+      </c>
+      <c r="F574" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2.678</v>
+      </c>
+      <c r="H574" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="I574" t="n">
+        <v>2.708</v>
+      </c>
+      <c r="J574" t="n">
+        <v>2.757</v>
+      </c>
+      <c r="K574" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="L574" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="M574" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="N574" t="n">
+        <v>2.862</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N574"/>
+  <dimension ref="A1:N576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25640,13 +25640,13 @@
         <v>44711</v>
       </c>
       <c r="B573" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C573" t="n">
-        <v>1.117</v>
+        <v>1.12</v>
       </c>
       <c r="D573" t="n">
-        <v>1.465</v>
+        <v>1.47</v>
       </c>
       <c r="E573" t="n">
         <v>2</v>
@@ -25655,28 +25655,28 @@
         <v>2.45</v>
       </c>
       <c r="G573" t="n">
-        <v>2.622</v>
+        <v>2.606</v>
       </c>
       <c r="H573" t="n">
-        <v>2.622</v>
+        <v>2.61</v>
       </c>
       <c r="I573" t="n">
-        <v>2.644</v>
+        <v>2.631</v>
       </c>
       <c r="J573" t="n">
-        <v>2.7</v>
+        <v>2.683</v>
       </c>
       <c r="K573" t="n">
-        <v>2.719</v>
+        <v>2.702</v>
       </c>
       <c r="L573" t="n">
-        <v>2.843</v>
+        <v>2.826</v>
       </c>
       <c r="M573" t="n">
-        <v>2.947</v>
+        <v>2.939</v>
       </c>
       <c r="N573" t="n">
-        <v>2.817</v>
+        <v>2.806</v>
       </c>
     </row>
     <row r="574">
@@ -25684,43 +25684,131 @@
         <v>44712</v>
       </c>
       <c r="B574" t="n">
-        <v>0.929</v>
+        <v>0.96</v>
       </c>
       <c r="C574" t="n">
-        <v>1.127</v>
+        <v>1.13</v>
       </c>
       <c r="D574" t="n">
-        <v>1.475</v>
+        <v>1.47</v>
       </c>
       <c r="E574" t="n">
-        <v>2.021</v>
+        <v>2.03</v>
       </c>
       <c r="F574" t="n">
-        <v>2.501</v>
+        <v>2.52</v>
       </c>
       <c r="G574" t="n">
-        <v>2.678</v>
+        <v>2.663</v>
       </c>
       <c r="H574" t="n">
-        <v>2.675</v>
+        <v>2.664</v>
       </c>
       <c r="I574" t="n">
-        <v>2.708</v>
+        <v>2.695</v>
       </c>
       <c r="J574" t="n">
-        <v>2.757</v>
+        <v>2.74</v>
       </c>
       <c r="K574" t="n">
-        <v>2.785</v>
+        <v>2.768</v>
       </c>
       <c r="L574" t="n">
-        <v>2.908</v>
+        <v>2.89</v>
       </c>
       <c r="M574" t="n">
-        <v>2.986</v>
+        <v>2.967</v>
       </c>
       <c r="N574" t="n">
-        <v>2.862</v>
+        <v>2.845</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E575" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2.793</v>
+      </c>
+      <c r="H575" t="n">
+        <v>2.794</v>
+      </c>
+      <c r="I575" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J575" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="K575" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="L575" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="M575" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="N575" t="n">
+        <v>2.877</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="H576" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="I576" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J576" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="K576" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="L576" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="M576" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="N576" t="n">
+        <v>2.914</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N576"/>
+  <dimension ref="A1:N577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25811,6 +25811,50 @@
         <v>2.914</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F577" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="I577" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="J577" t="n">
+        <v>2.977</v>
+      </c>
+      <c r="K577" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="L577" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M577" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="N577" t="n">
+        <v>2.954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N577"/>
+  <dimension ref="A1:N578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25855,6 +25855,50 @@
         <v>2.954</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B578" t="n">
+        <v>1.396</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D578" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="F578" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="G578" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="H578" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="J578" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="K578" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="L578" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="M578" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="N578" t="n">
+        <v>3.119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N578"/>
+  <dimension ref="A1:N579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25860,43 +25860,87 @@
         <v>44718</v>
       </c>
       <c r="B578" t="n">
-        <v>1.396</v>
+        <v>1.4</v>
       </c>
       <c r="C578" t="n">
         <v>1.37</v>
       </c>
       <c r="D578" t="n">
-        <v>1.638</v>
+        <v>1.64</v>
       </c>
       <c r="E578" t="n">
-        <v>2.264</v>
+        <v>2.27</v>
       </c>
       <c r="F578" t="n">
-        <v>2.832</v>
+        <v>2.85</v>
       </c>
       <c r="G578" t="n">
-        <v>3.048</v>
+        <v>3.027</v>
       </c>
       <c r="H578" t="n">
-        <v>3.046</v>
+        <v>3.029</v>
       </c>
       <c r="I578" t="n">
-        <v>3.098</v>
+        <v>3.094</v>
       </c>
       <c r="J578" t="n">
-        <v>3.148</v>
+        <v>3.125</v>
       </c>
       <c r="K578" t="n">
-        <v>3.166</v>
+        <v>3.144</v>
       </c>
       <c r="L578" t="n">
-        <v>3.217</v>
+        <v>3.195</v>
       </c>
       <c r="M578" t="n">
-        <v>3.229</v>
+        <v>3.208</v>
       </c>
       <c r="N578" t="n">
-        <v>3.119</v>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B579" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E579" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F579" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G579" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="H579" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="J579" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K579" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="L579" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M579" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N579" t="n">
+        <v>3.106</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N579"/>
+  <dimension ref="A1:N581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25943,6 +25943,94 @@
         <v>3.106</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E580" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G580" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="H580" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J580" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="K580" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="L580" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="M580" t="n">
+        <v>3.293</v>
+      </c>
+      <c r="N580" t="n">
+        <v>3.194</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E581" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F581" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G581" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="H581" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="J581" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="K581" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="L581" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="M581" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="N581" t="n">
+        <v>3.133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N581"/>
+  <dimension ref="A1:N582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26031,6 +26031,50 @@
         <v>3.133</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E582" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F582" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="G582" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="H582" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="J582" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K582" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="L582" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="M582" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="N582" t="n">
+        <v>3.201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -26036,43 +26036,43 @@
         <v>44722</v>
       </c>
       <c r="B582" t="n">
-        <v>1.38</v>
+        <v>1.375</v>
       </c>
       <c r="C582" t="n">
-        <v>1.6</v>
+        <v>1.597</v>
       </c>
       <c r="D582" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E582" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="F582" t="n">
-        <v>3.04</v>
+        <v>3.023</v>
       </c>
       <c r="G582" t="n">
-        <v>3.237</v>
+        <v>3.262</v>
       </c>
       <c r="H582" t="n">
-        <v>3.237</v>
+        <v>3.257</v>
       </c>
       <c r="I582" t="n">
-        <v>3.277</v>
+        <v>3.299</v>
       </c>
       <c r="J582" t="n">
-        <v>3.34</v>
+        <v>3.368</v>
       </c>
       <c r="K582" t="n">
-        <v>3.345</v>
+        <v>3.371</v>
       </c>
       <c r="L582" t="n">
-        <v>3.353</v>
+        <v>3.378</v>
       </c>
       <c r="M582" t="n">
-        <v>3.31</v>
+        <v>3.325</v>
       </c>
       <c r="N582" t="n">
-        <v>3.201</v>
+        <v>3.223</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N582"/>
+  <dimension ref="A1:N583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26036,43 +26036,87 @@
         <v>44722</v>
       </c>
       <c r="B582" t="n">
-        <v>1.375</v>
+        <v>1.38</v>
       </c>
       <c r="C582" t="n">
-        <v>1.597</v>
+        <v>1.6</v>
       </c>
       <c r="D582" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="E582" t="n">
-        <v>2.376</v>
+        <v>2.38</v>
       </c>
       <c r="F582" t="n">
-        <v>3.023</v>
+        <v>3.04</v>
       </c>
       <c r="G582" t="n">
-        <v>3.262</v>
+        <v>3.237</v>
       </c>
       <c r="H582" t="n">
-        <v>3.257</v>
+        <v>3.237</v>
       </c>
       <c r="I582" t="n">
-        <v>3.299</v>
+        <v>3.277</v>
       </c>
       <c r="J582" t="n">
-        <v>3.368</v>
+        <v>3.34</v>
       </c>
       <c r="K582" t="n">
-        <v>3.371</v>
+        <v>3.345</v>
       </c>
       <c r="L582" t="n">
-        <v>3.378</v>
+        <v>3.353</v>
       </c>
       <c r="M582" t="n">
-        <v>3.325</v>
+        <v>3.31</v>
       </c>
       <c r="N582" t="n">
-        <v>3.223</v>
+        <v>3.201</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E583" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F583" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="G583" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="H583" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="J583" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="K583" t="n">
+        <v>3.513</v>
+      </c>
+      <c r="L583" t="n">
+        <v>3.514</v>
+      </c>
+      <c r="M583" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="N583" t="n">
+        <v>3.308</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N583"/>
+  <dimension ref="A1:N584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26119,6 +26119,50 @@
         <v>3.308</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E584" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F584" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G584" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="H584" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3.513</v>
+      </c>
+      <c r="J584" t="n">
+        <v>3.589</v>
+      </c>
+      <c r="K584" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="L584" t="n">
+        <v>3.627</v>
+      </c>
+      <c r="M584" t="n">
+        <v>3.532</v>
+      </c>
+      <c r="N584" t="n">
+        <v>3.405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N584"/>
+  <dimension ref="A1:N587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26163,6 +26163,138 @@
         <v>3.405</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B585" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F585" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G585" t="n">
+        <v>3.284</v>
+      </c>
+      <c r="H585" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="J585" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="K585" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="L585" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M585" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="N585" t="n">
+        <v>3.327</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E586" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F586" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G586" t="n">
+        <v>3.209</v>
+      </c>
+      <c r="H586" t="n">
+        <v>3.215</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3.266</v>
+      </c>
+      <c r="J586" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="K586" t="n">
+        <v>3.313</v>
+      </c>
+      <c r="L586" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3.378</v>
+      </c>
+      <c r="N586" t="n">
+        <v>3.261</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E587" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F587" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G587" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="H587" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="I587" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="J587" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="K587" t="n">
+        <v>3.351</v>
+      </c>
+      <c r="L587" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="M587" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="N587" t="n">
+        <v>3.298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N587"/>
+  <dimension ref="A1:N588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26295,6 +26295,50 @@
         <v>3.298</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B588" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D588" t="n">
+        <v>2</v>
+      </c>
+      <c r="E588" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F588" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G588" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H588" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J588" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="K588" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="L588" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="M588" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="N588" t="n">
+        <v>3.312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N588"/>
+  <dimension ref="A1:N589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26339,6 +26339,50 @@
         <v>3.312</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B589" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D589" t="n">
+        <v>2</v>
+      </c>
+      <c r="E589" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F589" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G589" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="H589" t="n">
+        <v>3.347</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3.386</v>
+      </c>
+      <c r="J589" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="K589" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="L589" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N589" t="n">
+        <v>3.403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N589"/>
+  <dimension ref="A1:N590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26383,6 +26383,50 @@
         <v>3.403</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D590" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G590" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="H590" t="n">
+        <v>3.253</v>
+      </c>
+      <c r="I590" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="J590" t="n">
+        <v>3.328</v>
+      </c>
+      <c r="K590" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="L590" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N590" t="n">
+        <v>3.348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N590"/>
+  <dimension ref="A1:N591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26427,6 +26427,50 @@
         <v>3.348</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B591" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E591" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F591" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G591" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="H591" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="I591" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="J591" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="K591" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="L591" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="M591" t="n">
+        <v>3.376</v>
+      </c>
+      <c r="N591" t="n">
+        <v>3.287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N591"/>
+  <dimension ref="A1:N592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26447,13 +26447,13 @@
         <v>3.1</v>
       </c>
       <c r="G591" t="n">
-        <v>3.147</v>
+        <v>3.123</v>
       </c>
       <c r="H591" t="n">
-        <v>3.189</v>
+        <v>3.167</v>
       </c>
       <c r="I591" t="n">
-        <v>3.181</v>
+        <v>3.161</v>
       </c>
       <c r="J591" t="n">
         <v>3.189</v>
@@ -26469,6 +26469,50 @@
       </c>
       <c r="N591" t="n">
         <v>3.287</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D592" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G592" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="H592" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="I592" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J592" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="K592" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="L592" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N592" t="n">
+        <v>3.313</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -26476,43 +26476,43 @@
         <v>44736</v>
       </c>
       <c r="B592" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="C592" t="n">
-        <v>1.79</v>
+        <v>1.793</v>
       </c>
       <c r="D592" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="E592" t="n">
-        <v>2.6</v>
+        <v>2.597</v>
       </c>
       <c r="F592" t="n">
-        <v>3.12</v>
+        <v>3.101</v>
       </c>
       <c r="G592" t="n">
-        <v>3.134</v>
+        <v>3.158</v>
       </c>
       <c r="H592" t="n">
-        <v>3.178</v>
+        <v>3.2</v>
       </c>
       <c r="I592" t="n">
-        <v>3.174</v>
+        <v>3.194</v>
       </c>
       <c r="J592" t="n">
-        <v>3.212</v>
+        <v>3.237</v>
       </c>
       <c r="K592" t="n">
-        <v>3.229</v>
+        <v>3.246</v>
       </c>
       <c r="L592" t="n">
-        <v>3.333</v>
+        <v>3.352</v>
       </c>
       <c r="M592" t="n">
-        <v>3.41</v>
+        <v>3.424</v>
       </c>
       <c r="N592" t="n">
-        <v>3.313</v>
+        <v>3.331</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N592"/>
+  <dimension ref="A1:N593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26515,6 +26515,50 @@
         <v>3.331</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B593" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="D593" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="E593" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="F593" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="G593" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="H593" t="n">
+        <v>3.246</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="J593" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="K593" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L593" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="M593" t="n">
+        <v>3.466</v>
+      </c>
+      <c r="N593" t="n">
+        <v>3.384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N593"/>
+  <dimension ref="A1:N594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26476,43 +26476,43 @@
         <v>44736</v>
       </c>
       <c r="B592" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="C592" t="n">
-        <v>1.793</v>
+        <v>1.79</v>
       </c>
       <c r="D592" t="n">
-        <v>2.102</v>
+        <v>2.1</v>
       </c>
       <c r="E592" t="n">
-        <v>2.597</v>
+        <v>2.6</v>
       </c>
       <c r="F592" t="n">
-        <v>3.101</v>
+        <v>3.12</v>
       </c>
       <c r="G592" t="n">
-        <v>3.158</v>
+        <v>3.134</v>
       </c>
       <c r="H592" t="n">
-        <v>3.2</v>
+        <v>3.178</v>
       </c>
       <c r="I592" t="n">
-        <v>3.194</v>
+        <v>3.174</v>
       </c>
       <c r="J592" t="n">
-        <v>3.237</v>
+        <v>3.212</v>
       </c>
       <c r="K592" t="n">
-        <v>3.246</v>
+        <v>3.229</v>
       </c>
       <c r="L592" t="n">
-        <v>3.352</v>
+        <v>3.333</v>
       </c>
       <c r="M592" t="n">
-        <v>3.424</v>
+        <v>3.41</v>
       </c>
       <c r="N592" t="n">
-        <v>3.331</v>
+        <v>3.313</v>
       </c>
     </row>
     <row r="593">
@@ -26520,43 +26520,87 @@
         <v>44739</v>
       </c>
       <c r="B593" t="n">
-        <v>1.342</v>
+        <v>1.33</v>
       </c>
       <c r="C593" t="n">
-        <v>1.801</v>
+        <v>1.8</v>
       </c>
       <c r="D593" t="n">
-        <v>2.119</v>
+        <v>2.11</v>
       </c>
       <c r="E593" t="n">
-        <v>2.629</v>
+        <v>2.63</v>
       </c>
       <c r="F593" t="n">
-        <v>3.121</v>
+        <v>3.14</v>
       </c>
       <c r="G593" t="n">
-        <v>3.202</v>
+        <v>3.187</v>
       </c>
       <c r="H593" t="n">
-        <v>3.246</v>
+        <v>3.239</v>
       </c>
       <c r="I593" t="n">
-        <v>3.239</v>
+        <v>3.228</v>
       </c>
       <c r="J593" t="n">
-        <v>3.281</v>
+        <v>3.255</v>
       </c>
       <c r="K593" t="n">
-        <v>3.3</v>
+        <v>3.275</v>
       </c>
       <c r="L593" t="n">
-        <v>3.407</v>
+        <v>3.381</v>
       </c>
       <c r="M593" t="n">
-        <v>3.466</v>
+        <v>3.439</v>
       </c>
       <c r="N593" t="n">
-        <v>3.384</v>
+        <v>3.358</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B594" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D594" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E594" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F594" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G594" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="H594" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="I594" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="J594" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="K594" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="L594" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="M594" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="N594" t="n">
+        <v>3.284</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N594"/>
+  <dimension ref="A1:N595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26603,6 +26603,50 @@
         <v>3.284</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D595" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E595" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F595" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="G595" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="H595" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="I595" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="J595" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="K595" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="L595" t="n">
+        <v>3.313</v>
+      </c>
+      <c r="M595" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="N595" t="n">
+        <v>3.237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N595"/>
+  <dimension ref="A1:N596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26647,6 +26647,50 @@
         <v>3.237</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D596" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E596" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F596" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G596" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="H596" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="I596" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="J596" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="K596" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="L596" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="M596" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N596" t="n">
+        <v>3.138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -26652,43 +26652,43 @@
         <v>44742</v>
       </c>
       <c r="B596" t="n">
-        <v>1.4</v>
+        <v>1.418</v>
       </c>
       <c r="C596" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="D596" t="n">
-        <v>2.11</v>
+        <v>2.114</v>
       </c>
       <c r="E596" t="n">
-        <v>2.63</v>
+        <v>2.629</v>
       </c>
       <c r="F596" t="n">
-        <v>3.11</v>
+        <v>3.092</v>
       </c>
       <c r="G596" t="n">
-        <v>3.093</v>
+        <v>3.117</v>
       </c>
       <c r="H596" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="I596" t="n">
         <v>3.125</v>
       </c>
-      <c r="I596" t="n">
-        <v>3.106</v>
-      </c>
       <c r="J596" t="n">
-        <v>3.108</v>
+        <v>3.132</v>
       </c>
       <c r="K596" t="n">
-        <v>3.121</v>
+        <v>3.144</v>
       </c>
       <c r="L596" t="n">
-        <v>3.225</v>
+        <v>3.249</v>
       </c>
       <c r="M596" t="n">
-        <v>3.22</v>
+        <v>3.242</v>
       </c>
       <c r="N596" t="n">
-        <v>3.138</v>
+        <v>3.159</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -26652,43 +26652,43 @@
         <v>44742</v>
       </c>
       <c r="B596" t="n">
-        <v>1.418</v>
+        <v>1.4</v>
       </c>
       <c r="C596" t="n">
-        <v>1.806</v>
+        <v>1.8</v>
       </c>
       <c r="D596" t="n">
-        <v>2.114</v>
+        <v>2.11</v>
       </c>
       <c r="E596" t="n">
-        <v>2.629</v>
+        <v>2.63</v>
       </c>
       <c r="F596" t="n">
-        <v>3.092</v>
+        <v>3.11</v>
       </c>
       <c r="G596" t="n">
-        <v>3.117</v>
+        <v>3.093</v>
       </c>
       <c r="H596" t="n">
-        <v>3.146</v>
+        <v>3.125</v>
       </c>
       <c r="I596" t="n">
-        <v>3.125</v>
+        <v>3.106</v>
       </c>
       <c r="J596" t="n">
-        <v>3.132</v>
+        <v>3.108</v>
       </c>
       <c r="K596" t="n">
-        <v>3.144</v>
+        <v>3.121</v>
       </c>
       <c r="L596" t="n">
-        <v>3.249</v>
+        <v>3.225</v>
       </c>
       <c r="M596" t="n">
-        <v>3.242</v>
+        <v>3.22</v>
       </c>
       <c r="N596" t="n">
-        <v>3.159</v>
+        <v>3.138</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N596"/>
+  <dimension ref="A1:N597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26691,6 +26691,50 @@
         <v>3.138</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2.629</v>
+      </c>
+      <c r="F597" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="G597" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H597" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="I597" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="J597" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="K597" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="L597" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="M597" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="N597" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N597"/>
+  <dimension ref="A1:N598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26696,43 +26696,87 @@
         <v>44746</v>
       </c>
       <c r="B597" t="n">
-        <v>1.471</v>
+        <v>1.43</v>
       </c>
       <c r="C597" t="n">
-        <v>1.803</v>
+        <v>1.8</v>
       </c>
       <c r="D597" t="n">
-        <v>2.103</v>
+        <v>2.11</v>
       </c>
       <c r="E597" t="n">
-        <v>2.629</v>
+        <v>2.63</v>
       </c>
       <c r="F597" t="n">
-        <v>3.102</v>
+        <v>3.12</v>
       </c>
       <c r="G597" t="n">
-        <v>3.09</v>
+        <v>3.067</v>
       </c>
       <c r="H597" t="n">
-        <v>3.117</v>
+        <v>3.108</v>
       </c>
       <c r="I597" t="n">
-        <v>3.059</v>
+        <v>3.051</v>
       </c>
       <c r="J597" t="n">
-        <v>3.073</v>
+        <v>3.051</v>
       </c>
       <c r="K597" t="n">
-        <v>3.087</v>
+        <v>3.066</v>
       </c>
       <c r="L597" t="n">
-        <v>3.197</v>
+        <v>3.175</v>
       </c>
       <c r="M597" t="n">
-        <v>3.212</v>
+        <v>3.19</v>
       </c>
       <c r="N597" t="n">
-        <v>3.12</v>
+        <v>3.103</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D598" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E598" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G598" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="H598" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="I598" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="J598" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="K598" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="L598" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="M598" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="N598" t="n">
+        <v>3.035</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N598"/>
+  <dimension ref="A1:N599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26779,6 +26779,50 @@
         <v>3.035</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B599" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="C599" t="n">
+        <v>2.142</v>
+      </c>
+      <c r="D599" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E599" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F599" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G599" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="H599" t="n">
+        <v>3.149</v>
+      </c>
+      <c r="I599" t="n">
+        <v>3.094</v>
+      </c>
+      <c r="J599" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="K599" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="L599" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="N599" t="n">
+        <v>3.112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N599"/>
+  <dimension ref="A1:N600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26823,6 +26823,50 @@
         <v>3.112</v>
       </c>
     </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B600" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="D600" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F600" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G600" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="H600" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="I600" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="J600" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="K600" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="L600" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="M600" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="N600" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N600"/>
+  <dimension ref="A1:N601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26867,6 +26867,50 @@
         <v>3.14</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B601" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="D601" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="F601" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="G601" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="H601" t="n">
+        <v>3.287</v>
+      </c>
+      <c r="I601" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="J601" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="K601" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="L601" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M601" t="n">
+        <v>3.299</v>
+      </c>
+      <c r="N601" t="n">
+        <v>3.201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N601"/>
+  <dimension ref="A1:N602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26911,6 +26911,50 @@
         <v>3.201</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D602" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2.731</v>
+      </c>
+      <c r="F602" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="G602" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="H602" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I602" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="J602" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="K602" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="L602" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="M602" t="n">
+        <v>3.274</v>
+      </c>
+      <c r="N602" t="n">
+        <v>3.159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N602"/>
+  <dimension ref="A1:N603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26955,6 +26955,50 @@
         <v>3.159</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B603" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2.162</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="F603" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="G603" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="H603" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="J603" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="K603" t="n">
+        <v>3.133</v>
+      </c>
+      <c r="L603" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="M603" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="N603" t="n">
+        <v>3.122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N603"/>
+  <dimension ref="A1:N604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26999,6 +26999,50 @@
         <v>3.122</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B604" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="D604" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="F604" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="G604" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="H604" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="I604" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="J604" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="K604" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="L604" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="M604" t="n">
+        <v>3.203</v>
+      </c>
+      <c r="N604" t="n">
+        <v>3.067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N604"/>
+  <dimension ref="A1:N605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27043,6 +27043,50 @@
         <v>3.067</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B605" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="C605" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="D605" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="E605" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="F605" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="H605" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="I605" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="J605" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="K605" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="L605" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="M605" t="n">
+        <v>3.202</v>
+      </c>
+      <c r="N605" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N605"/>
+  <dimension ref="A1:N606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27087,6 +27087,50 @@
         <v>3.07</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B606" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C606" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="D606" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="E606" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="F606" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="G606" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="H606" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="I606" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="J606" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="K606" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="L606" t="n">
+        <v>3.091</v>
+      </c>
+      <c r="M606" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="N606" t="n">
+        <v>3.029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N606"/>
+  <dimension ref="A1:N607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27131,6 +27131,50 @@
         <v>3.029</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B607" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="C607" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="D607" t="n">
+        <v>2.611</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="F607" t="n">
+        <v>3.324</v>
+      </c>
+      <c r="G607" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="H607" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="I607" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="J607" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="K607" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="L607" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="M607" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="N607" t="n">
+        <v>3.062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N607"/>
+  <dimension ref="A1:N609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27175,6 +27175,94 @@
         <v>3.062</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B608" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="D608" t="n">
+        <v>2.602</v>
+      </c>
+      <c r="E608" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="F608" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="G608" t="n">
+        <v>3.322</v>
+      </c>
+      <c r="H608" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="I608" t="n">
+        <v>3.203</v>
+      </c>
+      <c r="J608" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="K608" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="L608" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="M608" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="N608" t="n">
+        <v>3.049</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B609" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="D609" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="E609" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="F609" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="G609" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H609" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="I609" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="J609" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="K609" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="L609" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="M609" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="N609" t="n">
+        <v>3.056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N609"/>
+  <dimension ref="A1:N610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27263,6 +27263,50 @@
         <v>3.056</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B610" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C610" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="E610" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="F610" t="n">
+        <v>3.361</v>
+      </c>
+      <c r="G610" t="n">
+        <v>3.195</v>
+      </c>
+      <c r="H610" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="I610" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="J610" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="K610" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="L610" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="M610" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="N610" t="n">
+        <v>2.924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N610"/>
+  <dimension ref="A1:N611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27307,6 +27307,50 @@
         <v>2.924</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B611" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C611" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="D611" t="n">
+        <v>2.682</v>
+      </c>
+      <c r="E611" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="F611" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G611" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="H611" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="I611" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J611" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="K611" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L611" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="M611" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="N611" t="n">
+        <v>2.836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -27312,7 +27312,7 @@
         <v>44764</v>
       </c>
       <c r="B611" t="n">
-        <v>2.47</v>
+        <v>2.408</v>
       </c>
       <c r="C611" t="n">
         <v>2.372</v>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N611"/>
+  <dimension ref="A1:N612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27351,6 +27351,50 @@
         <v>2.836</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B612" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="C612" t="n">
+        <v>2.473</v>
+      </c>
+      <c r="D612" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="E612" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F612" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="G612" t="n">
+        <v>3.128</v>
+      </c>
+      <c r="H612" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="I612" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="J612" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="K612" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="L612" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="M612" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="N612" t="n">
+        <v>2.866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N612"/>
+  <dimension ref="A1:N613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27395,6 +27395,50 @@
         <v>2.866</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2.657</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2.526</v>
+      </c>
+      <c r="D613" t="n">
+        <v>2.674</v>
+      </c>
+      <c r="E613" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="F613" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="G613" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="H613" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J613" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="K613" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L613" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="M613" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="N613" t="n">
+        <v>2.852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N613"/>
+  <dimension ref="A1:N614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27439,6 +27439,50 @@
         <v>2.852</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2.674</v>
+      </c>
+      <c r="E614" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F614" t="n">
+        <v>3.266</v>
+      </c>
+      <c r="G614" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="H614" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="I614" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="J614" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="K614" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L614" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="M614" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="N614" t="n">
+        <v>2.852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N614"/>
+  <dimension ref="A1:N615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27483,6 +27483,50 @@
         <v>2.852</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B615" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2.553</v>
+      </c>
+      <c r="D615" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="E615" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="F615" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="H615" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="I615" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="J615" t="n">
+        <v>2.635</v>
+      </c>
+      <c r="K615" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L615" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="M615" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="N615" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N615"/>
+  <dimension ref="A1:N616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27527,6 +27527,50 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B616" t="n">
+        <v>2.344</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2.474</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="E616" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="F616" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="G616" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="H616" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="I616" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="J616" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="K616" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="L616" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="M616" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="N616" t="n">
+        <v>2.848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N616"/>
+  <dimension ref="A1:N617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,43 +1352,43 @@
         <v>43908</v>
       </c>
       <c r="B21" t="n">
-        <v>0.318</v>
+        <v>0.45</v>
       </c>
       <c r="C21" t="n">
         <v>0.45</v>
       </c>
       <c r="D21" t="n">
-        <v>0.373</v>
+        <v>0.43</v>
       </c>
       <c r="E21" t="n">
-        <v>0.371</v>
+        <v>0.435</v>
       </c>
       <c r="F21" t="n">
         <v>0.39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="I21" t="n">
-        <v>0.831</v>
+        <v>0.835</v>
       </c>
       <c r="J21" t="n">
         <v>0.925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="L21" t="n">
-        <v>1.046</v>
+        <v>1.045</v>
       </c>
       <c r="M21" t="n">
-        <v>1.307</v>
+        <v>1.31</v>
       </c>
       <c r="N21" t="n">
-        <v>1.463</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="22">
@@ -1396,7 +1396,7 @@
         <v>43909</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459</v>
+        <v>0.54</v>
       </c>
       <c r="C22" t="n">
         <v>0.5</v>
@@ -1411,28 +1411,28 @@
         <v>0.39</v>
       </c>
       <c r="G22" t="n">
-        <v>0.637</v>
+        <v>0.671</v>
       </c>
       <c r="H22" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="I22" t="n">
-        <v>0.784</v>
+        <v>0.789</v>
       </c>
       <c r="J22" t="n">
-        <v>0.854</v>
+        <v>0.863</v>
       </c>
       <c r="K22" t="n">
-        <v>0.918</v>
+        <v>0.919</v>
       </c>
       <c r="L22" t="n">
-        <v>0.998</v>
+        <v>1.002</v>
       </c>
       <c r="M22" t="n">
-        <v>1.28</v>
+        <v>1.277</v>
       </c>
       <c r="N22" t="n">
-        <v>1.434</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="23">
@@ -24681,7 +24681,7 @@
         <v>1.38</v>
       </c>
       <c r="E551" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F551" t="n">
         <v>2.37</v>
@@ -24716,7 +24716,7 @@
         <v>44679</v>
       </c>
       <c r="B552" t="n">
-        <v>0.864</v>
+        <v>0.87</v>
       </c>
       <c r="C552" t="n">
         <v>0.96</v>
@@ -24743,7 +24743,7 @@
         <v>2.662</v>
       </c>
       <c r="K552" t="n">
-        <v>2.675</v>
+        <v>2.659</v>
       </c>
       <c r="L552" t="n">
         <v>2.787</v>
@@ -24766,7 +24766,7 @@
         <v>0.95</v>
       </c>
       <c r="D553" t="n">
-        <v>1.443</v>
+        <v>1.45</v>
       </c>
       <c r="E553" t="n">
         <v>1.88</v>
@@ -24778,7 +24778,7 @@
         <v>2.622</v>
       </c>
       <c r="H553" t="n">
-        <v>2.68</v>
+        <v>2.668</v>
       </c>
       <c r="I553" t="n">
         <v>2.731</v>
@@ -24790,7 +24790,7 @@
         <v>2.752</v>
       </c>
       <c r="L553" t="n">
-        <v>2.889</v>
+        <v>2.872</v>
       </c>
       <c r="M553" t="n">
         <v>2.915</v>
@@ -26872,43 +26872,43 @@
         <v>44750</v>
       </c>
       <c r="B601" t="n">
-        <v>2.116</v>
+        <v>2.179</v>
       </c>
       <c r="C601" t="n">
-        <v>2.159</v>
+        <v>2.202</v>
       </c>
       <c r="D601" t="n">
-        <v>2.237</v>
+        <v>2.23</v>
       </c>
       <c r="E601" t="n">
-        <v>2.741</v>
+        <v>2.74</v>
       </c>
       <c r="F601" t="n">
-        <v>3.243</v>
+        <v>3.26</v>
       </c>
       <c r="G601" t="n">
-        <v>3.301</v>
+        <v>3.274</v>
       </c>
       <c r="H601" t="n">
-        <v>3.287</v>
+        <v>3.264</v>
       </c>
       <c r="I601" t="n">
-        <v>3.243</v>
+        <v>3.222</v>
       </c>
       <c r="J601" t="n">
-        <v>3.239</v>
+        <v>3.213</v>
       </c>
       <c r="K601" t="n">
-        <v>3.239</v>
+        <v>3.215</v>
       </c>
       <c r="L601" t="n">
-        <v>3.32</v>
+        <v>3.296</v>
       </c>
       <c r="M601" t="n">
-        <v>3.299</v>
+        <v>3.276</v>
       </c>
       <c r="N601" t="n">
-        <v>3.201</v>
+        <v>3.179</v>
       </c>
     </row>
     <row r="602">
@@ -26916,43 +26916,43 @@
         <v>44753</v>
       </c>
       <c r="B602" t="n">
-        <v>2.136</v>
+        <v>2.204</v>
       </c>
       <c r="C602" t="n">
-        <v>2.175</v>
+        <v>2.219</v>
       </c>
       <c r="D602" t="n">
-        <v>2.256</v>
+        <v>2.25</v>
       </c>
       <c r="E602" t="n">
-        <v>2.731</v>
+        <v>2.74</v>
       </c>
       <c r="F602" t="n">
-        <v>3.224</v>
+        <v>3.25</v>
       </c>
       <c r="G602" t="n">
-        <v>3.285</v>
+        <v>3.259</v>
       </c>
       <c r="H602" t="n">
-        <v>3.26</v>
+        <v>3.237</v>
       </c>
       <c r="I602" t="n">
-        <v>3.213</v>
+        <v>3.192</v>
       </c>
       <c r="J602" t="n">
-        <v>3.195</v>
+        <v>3.17</v>
       </c>
       <c r="K602" t="n">
-        <v>3.191</v>
+        <v>3.167</v>
       </c>
       <c r="L602" t="n">
-        <v>3.267</v>
+        <v>3.244</v>
       </c>
       <c r="M602" t="n">
-        <v>3.274</v>
+        <v>3.252</v>
       </c>
       <c r="N602" t="n">
-        <v>3.159</v>
+        <v>3.139</v>
       </c>
     </row>
     <row r="603">
@@ -26960,43 +26960,43 @@
         <v>44754</v>
       </c>
       <c r="B603" t="n">
-        <v>2.118</v>
+        <v>2.191</v>
       </c>
       <c r="C603" t="n">
-        <v>2.162</v>
+        <v>2.206</v>
       </c>
       <c r="D603" t="n">
-        <v>2.247</v>
+        <v>2.25</v>
       </c>
       <c r="E603" t="n">
-        <v>2.711</v>
+        <v>2.71</v>
       </c>
       <c r="F603" t="n">
-        <v>3.184</v>
+        <v>3.2</v>
       </c>
       <c r="G603" t="n">
-        <v>3.237</v>
+        <v>3.212</v>
       </c>
       <c r="H603" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="J603" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K603" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="L603" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M603" t="n">
         <v>3.216</v>
       </c>
-      <c r="I603" t="n">
-        <v>3.171</v>
-      </c>
-      <c r="J603" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="K603" t="n">
-        <v>3.133</v>
-      </c>
-      <c r="L603" t="n">
-        <v>3.213</v>
-      </c>
-      <c r="M603" t="n">
-        <v>3.238</v>
-      </c>
       <c r="N603" t="n">
-        <v>3.122</v>
+        <v>3.102</v>
       </c>
     </row>
     <row r="604">
@@ -27004,43 +27004,43 @@
         <v>44755</v>
       </c>
       <c r="B604" t="n">
-        <v>2.448</v>
+        <v>2.521</v>
       </c>
       <c r="C604" t="n">
-        <v>2.489</v>
+        <v>2.533</v>
       </c>
       <c r="D604" t="n">
-        <v>2.592</v>
+        <v>2.58</v>
       </c>
       <c r="E604" t="n">
-        <v>2.934</v>
+        <v>2.93</v>
       </c>
       <c r="F604" t="n">
-        <v>3.334</v>
+        <v>3.35</v>
       </c>
       <c r="G604" t="n">
-        <v>3.339</v>
+        <v>3.311</v>
       </c>
       <c r="H604" t="n">
-        <v>3.291</v>
+        <v>3.267</v>
       </c>
       <c r="I604" t="n">
-        <v>3.227</v>
+        <v>3.206</v>
       </c>
       <c r="J604" t="n">
-        <v>3.154</v>
+        <v>3.13</v>
       </c>
       <c r="K604" t="n">
-        <v>3.134</v>
+        <v>3.112</v>
       </c>
       <c r="L604" t="n">
-        <v>3.178</v>
+        <v>3.155</v>
       </c>
       <c r="M604" t="n">
-        <v>3.203</v>
+        <v>3.182</v>
       </c>
       <c r="N604" t="n">
-        <v>3.067</v>
+        <v>3.051</v>
       </c>
     </row>
     <row r="605">
@@ -27048,43 +27048,43 @@
         <v>44756</v>
       </c>
       <c r="B605" t="n">
-        <v>2.444</v>
+        <v>2.539</v>
       </c>
       <c r="C605" t="n">
-        <v>2.481</v>
+        <v>2.528</v>
       </c>
       <c r="D605" t="n">
-        <v>2.602</v>
+        <v>2.59</v>
       </c>
       <c r="E605" t="n">
-        <v>2.965</v>
+        <v>2.96</v>
       </c>
       <c r="F605" t="n">
-        <v>3.364</v>
+        <v>3.38</v>
       </c>
       <c r="G605" t="n">
-        <v>3.283</v>
+        <v>3.269</v>
       </c>
       <c r="H605" t="n">
-        <v>3.254</v>
+        <v>3.231</v>
       </c>
       <c r="I605" t="n">
-        <v>3.197</v>
+        <v>3.176</v>
       </c>
       <c r="J605" t="n">
-        <v>3.159</v>
+        <v>3.135</v>
       </c>
       <c r="K605" t="n">
-        <v>3.136</v>
+        <v>3.113</v>
       </c>
       <c r="L605" t="n">
-        <v>3.164</v>
+        <v>3.142</v>
       </c>
       <c r="M605" t="n">
-        <v>3.202</v>
+        <v>3.181</v>
       </c>
       <c r="N605" t="n">
-        <v>3.07</v>
+        <v>3.051</v>
       </c>
     </row>
     <row r="606">
@@ -27092,43 +27092,43 @@
         <v>44757</v>
       </c>
       <c r="B606" t="n">
-        <v>2.47</v>
+        <v>2.547</v>
       </c>
       <c r="C606" t="n">
-        <v>2.464</v>
+        <v>2.512</v>
       </c>
       <c r="D606" t="n">
-        <v>2.592</v>
+        <v>2.59</v>
       </c>
       <c r="E606" t="n">
-        <v>2.955</v>
+        <v>2.95</v>
       </c>
       <c r="F606" t="n">
-        <v>3.324</v>
+        <v>3.34</v>
       </c>
       <c r="G606" t="n">
-        <v>3.234</v>
+        <v>3.211</v>
       </c>
       <c r="H606" t="n">
-        <v>3.198</v>
+        <v>3.176</v>
       </c>
       <c r="I606" t="n">
-        <v>3.142</v>
+        <v>3.123</v>
       </c>
       <c r="J606" t="n">
-        <v>3.099</v>
+        <v>3.076</v>
       </c>
       <c r="K606" t="n">
-        <v>3.073</v>
+        <v>3.051</v>
       </c>
       <c r="L606" t="n">
-        <v>3.091</v>
+        <v>3.07</v>
       </c>
       <c r="M606" t="n">
-        <v>3.157</v>
+        <v>3.136</v>
       </c>
       <c r="N606" t="n">
-        <v>3.029</v>
+        <v>3.009</v>
       </c>
     </row>
     <row r="607">
@@ -27136,43 +27136,43 @@
         <v>44760</v>
       </c>
       <c r="B607" t="n">
-        <v>2.439</v>
+        <v>2.587</v>
       </c>
       <c r="C607" t="n">
-        <v>2.464</v>
+        <v>2.513</v>
       </c>
       <c r="D607" t="n">
-        <v>2.611</v>
+        <v>2.6</v>
       </c>
       <c r="E607" t="n">
-        <v>2.976</v>
+        <v>2.97</v>
       </c>
       <c r="F607" t="n">
-        <v>3.324</v>
+        <v>3.34</v>
       </c>
       <c r="G607" t="n">
-        <v>3.249</v>
+        <v>3.247</v>
       </c>
       <c r="H607" t="n">
-        <v>3.221</v>
+        <v>3.214</v>
       </c>
       <c r="I607" t="n">
-        <v>3.154</v>
+        <v>3.133</v>
       </c>
       <c r="J607" t="n">
-        <v>3.102</v>
+        <v>3.079</v>
       </c>
       <c r="K607" t="n">
-        <v>3.075</v>
+        <v>3.054</v>
       </c>
       <c r="L607" t="n">
-        <v>3.093</v>
+        <v>3.072</v>
       </c>
       <c r="M607" t="n">
-        <v>3.182</v>
+        <v>3.161</v>
       </c>
       <c r="N607" t="n">
-        <v>3.062</v>
+        <v>3.042</v>
       </c>
     </row>
     <row r="608">
@@ -27180,43 +27180,43 @@
         <v>44761</v>
       </c>
       <c r="B608" t="n">
-        <v>2.538</v>
+        <v>2.668</v>
       </c>
       <c r="C608" t="n">
-        <v>2.482</v>
+        <v>2.532</v>
       </c>
       <c r="D608" t="n">
-        <v>2.602</v>
+        <v>2.6</v>
       </c>
       <c r="E608" t="n">
-        <v>3.032</v>
+        <v>3.02</v>
       </c>
       <c r="F608" t="n">
-        <v>3.395</v>
+        <v>3.41</v>
       </c>
       <c r="G608" t="n">
-        <v>3.322</v>
+        <v>3.319</v>
       </c>
       <c r="H608" t="n">
-        <v>3.286</v>
+        <v>3.274</v>
       </c>
       <c r="I608" t="n">
-        <v>3.203</v>
+        <v>3.18</v>
       </c>
       <c r="J608" t="n">
-        <v>3.151</v>
+        <v>3.126</v>
       </c>
       <c r="K608" t="n">
-        <v>3.118</v>
+        <v>3.096</v>
       </c>
       <c r="L608" t="n">
-        <v>3.105</v>
+        <v>3.084</v>
       </c>
       <c r="M608" t="n">
-        <v>3.161</v>
+        <v>3.14</v>
       </c>
       <c r="N608" t="n">
-        <v>3.049</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="609">
@@ -27224,43 +27224,43 @@
         <v>44762</v>
       </c>
       <c r="B609" t="n">
-        <v>2.545</v>
+        <v>2.691</v>
       </c>
       <c r="C609" t="n">
-        <v>2.483</v>
+        <v>2.533</v>
       </c>
       <c r="D609" t="n">
-        <v>2.683</v>
+        <v>2.69</v>
       </c>
       <c r="E609" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F609" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G609" t="n">
+        <v>3.298</v>
+      </c>
+      <c r="H609" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="I609" t="n">
         <v>3.217</v>
       </c>
-      <c r="F609" t="n">
-        <v>3.431</v>
-      </c>
-      <c r="G609" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="H609" t="n">
-        <v>3.289</v>
-      </c>
-      <c r="I609" t="n">
-        <v>3.239</v>
-      </c>
       <c r="J609" t="n">
-        <v>3.168</v>
+        <v>3.143</v>
       </c>
       <c r="K609" t="n">
-        <v>3.131</v>
+        <v>3.108</v>
       </c>
       <c r="L609" t="n">
-        <v>3.138</v>
+        <v>3.117</v>
       </c>
       <c r="M609" t="n">
-        <v>3.161</v>
+        <v>3.14</v>
       </c>
       <c r="N609" t="n">
-        <v>3.056</v>
+        <v>3.036</v>
       </c>
     </row>
     <row r="610">
@@ -27268,43 +27268,43 @@
         <v>44763</v>
       </c>
       <c r="B610" t="n">
-        <v>2.47</v>
+        <v>2.696</v>
       </c>
       <c r="C610" t="n">
-        <v>2.414</v>
+        <v>2.468</v>
       </c>
       <c r="D610" t="n">
-        <v>2.694</v>
+        <v>2.68</v>
       </c>
       <c r="E610" t="n">
-        <v>3.171</v>
+        <v>3.16</v>
       </c>
       <c r="F610" t="n">
-        <v>3.361</v>
+        <v>3.38</v>
       </c>
       <c r="G610" t="n">
-        <v>3.195</v>
+        <v>3.173</v>
       </c>
       <c r="H610" t="n">
-        <v>3.162</v>
+        <v>3.14</v>
       </c>
       <c r="I610" t="n">
-        <v>3.108</v>
+        <v>3.088</v>
       </c>
       <c r="J610" t="n">
-        <v>2.993</v>
+        <v>2.971</v>
       </c>
       <c r="K610" t="n">
-        <v>2.956</v>
+        <v>2.936</v>
       </c>
       <c r="L610" t="n">
-        <v>2.967</v>
+        <v>2.947</v>
       </c>
       <c r="M610" t="n">
-        <v>3.025</v>
+        <v>3.006</v>
       </c>
       <c r="N610" t="n">
-        <v>2.924</v>
+        <v>2.907</v>
       </c>
     </row>
     <row r="611">
@@ -27312,43 +27312,43 @@
         <v>44764</v>
       </c>
       <c r="B611" t="n">
-        <v>2.408</v>
+        <v>2.678</v>
       </c>
       <c r="C611" t="n">
-        <v>2.372</v>
+        <v>2.428</v>
       </c>
       <c r="D611" t="n">
-        <v>2.682</v>
+        <v>2.67</v>
       </c>
       <c r="E611" t="n">
-        <v>3.109</v>
+        <v>3.1</v>
       </c>
       <c r="F611" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="G611" t="n">
-        <v>3.08</v>
+        <v>3.059</v>
       </c>
       <c r="H611" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="I611" t="n">
-        <v>2.98</v>
+        <v>2.962</v>
       </c>
       <c r="J611" t="n">
-        <v>2.864</v>
+        <v>2.844</v>
       </c>
       <c r="K611" t="n">
-        <v>2.83</v>
+        <v>2.812</v>
       </c>
       <c r="L611" t="n">
-        <v>2.852</v>
+        <v>2.841</v>
       </c>
       <c r="M611" t="n">
-        <v>2.938</v>
+        <v>2.93</v>
       </c>
       <c r="N611" t="n">
-        <v>2.836</v>
+        <v>2.823</v>
       </c>
     </row>
     <row r="612">
@@ -27356,43 +27356,43 @@
         <v>44767</v>
       </c>
       <c r="B612" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="C612" t="n">
-        <v>2.473</v>
+        <v>2.53</v>
       </c>
       <c r="D612" t="n">
-        <v>2.683</v>
+        <v>2.67</v>
       </c>
       <c r="E612" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="F612" t="n">
-        <v>3.256</v>
+        <v>3.28</v>
       </c>
       <c r="G612" t="n">
-        <v>3.128</v>
+        <v>3.107</v>
       </c>
       <c r="H612" t="n">
-        <v>3.087</v>
+        <v>3.067</v>
       </c>
       <c r="I612" t="n">
-        <v>3.032</v>
+        <v>3.014</v>
       </c>
       <c r="J612" t="n">
-        <v>2.899</v>
+        <v>2.879</v>
       </c>
       <c r="K612" t="n">
-        <v>2.865</v>
+        <v>2.846</v>
       </c>
       <c r="L612" t="n">
-        <v>2.878</v>
+        <v>2.867</v>
       </c>
       <c r="M612" t="n">
-        <v>2.967</v>
+        <v>2.945</v>
       </c>
       <c r="N612" t="n">
-        <v>2.866</v>
+        <v>2.852</v>
       </c>
     </row>
     <row r="613">
@@ -27400,43 +27400,43 @@
         <v>44768</v>
       </c>
       <c r="B613" t="n">
-        <v>2.657</v>
+        <v>2.984</v>
       </c>
       <c r="C613" t="n">
-        <v>2.526</v>
+        <v>2.584</v>
       </c>
       <c r="D613" t="n">
-        <v>2.674</v>
+        <v>2.67</v>
       </c>
       <c r="E613" t="n">
-        <v>3.142</v>
+        <v>3.13</v>
       </c>
       <c r="F613" t="n">
-        <v>3.271</v>
+        <v>3.29</v>
       </c>
       <c r="G613" t="n">
-        <v>3.141</v>
+        <v>3.12</v>
       </c>
       <c r="H613" t="n">
-        <v>3.088</v>
+        <v>3.067</v>
       </c>
       <c r="I613" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="J613" t="n">
-        <v>2.868</v>
+        <v>2.848</v>
       </c>
       <c r="K613" t="n">
-        <v>2.83</v>
+        <v>2.812</v>
       </c>
       <c r="L613" t="n">
-        <v>2.841</v>
+        <v>2.825</v>
       </c>
       <c r="M613" t="n">
-        <v>2.927</v>
+        <v>2.91</v>
       </c>
       <c r="N613" t="n">
-        <v>2.852</v>
+        <v>2.836</v>
       </c>
     </row>
     <row r="614">
@@ -27444,43 +27444,43 @@
         <v>44769</v>
       </c>
       <c r="B614" t="n">
-        <v>2.471</v>
+        <v>3.167</v>
       </c>
       <c r="C614" t="n">
-        <v>2.506</v>
+        <v>2.565</v>
       </c>
       <c r="D614" t="n">
-        <v>2.674</v>
+        <v>2.67</v>
       </c>
       <c r="E614" t="n">
-        <v>3.136</v>
+        <v>3.13</v>
       </c>
       <c r="F614" t="n">
-        <v>3.266</v>
+        <v>3.28</v>
       </c>
       <c r="G614" t="n">
-        <v>3.076</v>
+        <v>3.056</v>
       </c>
       <c r="H614" t="n">
-        <v>3.007</v>
+        <v>2.988</v>
       </c>
       <c r="I614" t="n">
-        <v>2.954</v>
+        <v>2.938</v>
       </c>
       <c r="J614" t="n">
-        <v>2.796</v>
+        <v>2.778</v>
       </c>
       <c r="K614" t="n">
-        <v>2.76</v>
+        <v>2.743</v>
       </c>
       <c r="L614" t="n">
-        <v>2.783</v>
+        <v>2.766</v>
       </c>
       <c r="M614" t="n">
-        <v>2.921</v>
+        <v>2.904</v>
       </c>
       <c r="N614" t="n">
-        <v>2.852</v>
+        <v>2.836</v>
       </c>
     </row>
     <row r="615">
@@ -27491,40 +27491,40 @@
         <v>2.498</v>
       </c>
       <c r="C615" t="n">
-        <v>2.553</v>
+        <v>2.55</v>
       </c>
       <c r="D615" t="n">
-        <v>2.684</v>
+        <v>2.67</v>
       </c>
       <c r="E615" t="n">
-        <v>3.086</v>
+        <v>3.08</v>
       </c>
       <c r="F615" t="n">
-        <v>3.171</v>
+        <v>3.19</v>
       </c>
       <c r="G615" t="n">
-        <v>2.983</v>
+        <v>2.963</v>
       </c>
       <c r="H615" t="n">
-        <v>2.901</v>
+        <v>2.883</v>
       </c>
       <c r="I615" t="n">
-        <v>2.849</v>
+        <v>2.833</v>
       </c>
       <c r="J615" t="n">
-        <v>2.635</v>
+        <v>2.619</v>
       </c>
       <c r="K615" t="n">
-        <v>2.6</v>
+        <v>2.585</v>
       </c>
       <c r="L615" t="n">
-        <v>2.626</v>
+        <v>2.611</v>
       </c>
       <c r="M615" t="n">
-        <v>2.839</v>
+        <v>2.832</v>
       </c>
       <c r="N615" t="n">
-        <v>2.79</v>
+        <v>2.778</v>
       </c>
     </row>
     <row r="616">
@@ -27532,43 +27532,87 @@
         <v>44775</v>
       </c>
       <c r="B616" t="n">
-        <v>2.344</v>
+        <v>2.34</v>
       </c>
       <c r="C616" t="n">
-        <v>2.474</v>
+        <v>2.46</v>
       </c>
       <c r="D616" t="n">
-        <v>2.679</v>
+        <v>2.67</v>
       </c>
       <c r="E616" t="n">
-        <v>3.193</v>
+        <v>3.18</v>
       </c>
       <c r="F616" t="n">
-        <v>3.267</v>
+        <v>3.28</v>
       </c>
       <c r="G616" t="n">
-        <v>3.132</v>
+        <v>3.11</v>
       </c>
       <c r="H616" t="n">
-        <v>3.041</v>
+        <v>3.035</v>
       </c>
       <c r="I616" t="n">
-        <v>2.993</v>
+        <v>2.975</v>
       </c>
       <c r="J616" t="n">
-        <v>2.782</v>
+        <v>2.76</v>
       </c>
       <c r="K616" t="n">
-        <v>2.738</v>
+        <v>2.719</v>
       </c>
       <c r="L616" t="n">
-        <v>2.724</v>
+        <v>2.711</v>
       </c>
       <c r="M616" t="n">
-        <v>2.886</v>
+        <v>2.87</v>
       </c>
       <c r="N616" t="n">
-        <v>2.848</v>
+        <v>2.831</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B617" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="D617" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="E617" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F617" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="G617" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="H617" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="J617" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="K617" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="L617" t="n">
+        <v>2.734</v>
+      </c>
+      <c r="M617" t="n">
+        <v>2.847</v>
+      </c>
+      <c r="N617" t="n">
+        <v>2.802</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N617"/>
+  <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27576,43 +27576,87 @@
         <v>44776</v>
       </c>
       <c r="B617" t="n">
-        <v>2.365</v>
+        <v>2.35</v>
       </c>
       <c r="C617" t="n">
         <v>2.46</v>
       </c>
       <c r="D617" t="n">
-        <v>2.856</v>
+        <v>2.85</v>
       </c>
       <c r="E617" t="n">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="F617" t="n">
-        <v>3.388</v>
+        <v>3.4</v>
       </c>
       <c r="G617" t="n">
-        <v>3.207</v>
+        <v>3.184</v>
       </c>
       <c r="H617" t="n">
-        <v>3.114</v>
+        <v>3.093</v>
       </c>
       <c r="I617" t="n">
-        <v>3.063</v>
+        <v>3.044</v>
       </c>
       <c r="J617" t="n">
-        <v>2.828</v>
+        <v>2.808</v>
       </c>
       <c r="K617" t="n">
-        <v>2.776</v>
+        <v>2.758</v>
       </c>
       <c r="L617" t="n">
-        <v>2.734</v>
+        <v>2.719</v>
       </c>
       <c r="M617" t="n">
-        <v>2.847</v>
+        <v>2.84</v>
       </c>
       <c r="N617" t="n">
-        <v>2.802</v>
+        <v>2.788</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D618" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E618" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F618" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="G618" t="n">
+        <v>3.159</v>
+      </c>
+      <c r="H618" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3.014</v>
+      </c>
+      <c r="J618" t="n">
+        <v>2.763</v>
+      </c>
+      <c r="K618" t="n">
+        <v>2.708</v>
+      </c>
+      <c r="L618" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="M618" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="N618" t="n">
+        <v>2.791</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N618"/>
+  <dimension ref="A1:N619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27659,6 +27659,50 @@
         <v>2.791</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D619" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E619" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F619" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G619" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="H619" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="J619" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="K619" t="n">
+        <v>2.787</v>
+      </c>
+      <c r="L619" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="M619" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="N619" t="n">
+        <v>2.822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N619"/>
+  <dimension ref="A1:N621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27703,6 +27703,94 @@
         <v>2.822</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B620" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="D620" t="n">
+        <v>2.878</v>
+      </c>
+      <c r="E620" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F620" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="G620" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H620" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="J620" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="K620" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="L620" t="n">
+        <v>2.693</v>
+      </c>
+      <c r="M620" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="N620" t="n">
+        <v>2.766</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="D621" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="E621" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="F621" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="G621" t="n">
+        <v>3.296</v>
+      </c>
+      <c r="H621" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="J621" t="n">
+        <v>2.853</v>
+      </c>
+      <c r="K621" t="n">
+        <v>2.786</v>
+      </c>
+      <c r="L621" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="M621" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="N621" t="n">
+        <v>2.785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N621"/>
+  <dimension ref="A1:N622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27708,43 +27708,43 @@
         <v>44781</v>
       </c>
       <c r="B620" t="n">
-        <v>2.383</v>
+        <v>2.34</v>
       </c>
       <c r="C620" t="n">
-        <v>2.484</v>
+        <v>2.47</v>
       </c>
       <c r="D620" t="n">
-        <v>2.878</v>
+        <v>2.86</v>
       </c>
       <c r="E620" t="n">
         <v>3.22</v>
       </c>
       <c r="F620" t="n">
-        <v>3.414</v>
+        <v>3.43</v>
       </c>
       <c r="G620" t="n">
-        <v>3.26</v>
+        <v>3.237</v>
       </c>
       <c r="H620" t="n">
-        <v>3.146</v>
+        <v>3.125</v>
       </c>
       <c r="I620" t="n">
-        <v>3.086</v>
+        <v>3.066</v>
       </c>
       <c r="J620" t="n">
-        <v>2.819</v>
+        <v>2.799</v>
       </c>
       <c r="K620" t="n">
-        <v>2.754</v>
+        <v>2.737</v>
       </c>
       <c r="L620" t="n">
-        <v>2.693</v>
+        <v>2.677</v>
       </c>
       <c r="M620" t="n">
-        <v>2.825</v>
+        <v>2.809</v>
       </c>
       <c r="N620" t="n">
-        <v>2.766</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="621">
@@ -27752,43 +27752,87 @@
         <v>44782</v>
       </c>
       <c r="B621" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="C621" t="n">
-        <v>2.475</v>
+        <v>2.46</v>
       </c>
       <c r="D621" t="n">
-        <v>2.876</v>
+        <v>2.86</v>
       </c>
       <c r="E621" t="n">
-        <v>3.239</v>
+        <v>3.23</v>
       </c>
       <c r="F621" t="n">
-        <v>3.444</v>
+        <v>3.46</v>
       </c>
       <c r="G621" t="n">
-        <v>3.296</v>
+        <v>3.272</v>
       </c>
       <c r="H621" t="n">
-        <v>3.182</v>
+        <v>3.16</v>
       </c>
       <c r="I621" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="J621" t="n">
-        <v>2.853</v>
+        <v>2.833</v>
       </c>
       <c r="K621" t="n">
-        <v>2.786</v>
+        <v>2.768</v>
       </c>
       <c r="L621" t="n">
-        <v>2.717</v>
+        <v>2.702</v>
       </c>
       <c r="M621" t="n">
-        <v>2.849</v>
+        <v>2.832</v>
       </c>
       <c r="N621" t="n">
-        <v>2.785</v>
+        <v>2.769</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B622" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D622" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E622" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F622" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="G622" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H622" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="J622" t="n">
+        <v>2.787</v>
+      </c>
+      <c r="K622" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="L622" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="M622" t="n">
+        <v>2.819</v>
+      </c>
+      <c r="N622" t="n">
+        <v>2.764</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N622"/>
+  <dimension ref="A1:N623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27835,6 +27835,50 @@
         <v>2.764</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D623" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E623" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F623" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="G623" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="H623" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="J623" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="K623" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="L623" t="n">
+        <v>2.787</v>
+      </c>
+      <c r="M623" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="N623" t="n">
+        <v>2.891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N623"/>
+  <dimension ref="A1:N624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27849,34 +27849,78 @@
         <v>2.85</v>
       </c>
       <c r="E623" t="n">
-        <v>3.2</v>
+        <v>3.209</v>
       </c>
       <c r="F623" t="n">
-        <v>3.41</v>
+        <v>3.394</v>
       </c>
       <c r="G623" t="n">
-        <v>3.251</v>
+        <v>3.274</v>
       </c>
       <c r="H623" t="n">
-        <v>3.165</v>
+        <v>3.188</v>
       </c>
       <c r="I623" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="J623" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="K623" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="L623" t="n">
+        <v>2.805</v>
+      </c>
+      <c r="M623" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="N623" t="n">
+        <v>2.908</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B624" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="D624" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="E624" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="F624" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="G624" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="H624" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I624" t="n">
         <v>3.114</v>
       </c>
-      <c r="J623" t="n">
-        <v>2.885</v>
-      </c>
-      <c r="K623" t="n">
-        <v>2.831</v>
-      </c>
-      <c r="L623" t="n">
-        <v>2.787</v>
-      </c>
-      <c r="M623" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="N623" t="n">
-        <v>2.891</v>
+      <c r="J624" t="n">
+        <v>2.869</v>
+      </c>
+      <c r="K624" t="n">
+        <v>2.806</v>
+      </c>
+      <c r="L624" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="M624" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N624" t="n">
+        <v>2.866</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N624"/>
+  <dimension ref="A1:N625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27923,6 +27923,50 @@
         <v>2.866</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="D625" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="E625" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="F625" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="G625" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="H625" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="I625" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="J625" t="n">
+        <v>2.829</v>
+      </c>
+      <c r="K625" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="L625" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="M625" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="N625" t="n">
+        <v>2.853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N625"/>
+  <dimension ref="A1:N626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27849,34 +27849,34 @@
         <v>2.85</v>
       </c>
       <c r="E623" t="n">
-        <v>3.209</v>
+        <v>3.2</v>
       </c>
       <c r="F623" t="n">
-        <v>3.394</v>
+        <v>3.41</v>
       </c>
       <c r="G623" t="n">
-        <v>3.274</v>
+        <v>3.251</v>
       </c>
       <c r="H623" t="n">
-        <v>3.188</v>
+        <v>3.165</v>
       </c>
       <c r="I623" t="n">
-        <v>3.134</v>
+        <v>3.114</v>
       </c>
       <c r="J623" t="n">
-        <v>2.905</v>
+        <v>2.885</v>
       </c>
       <c r="K623" t="n">
-        <v>2.849</v>
+        <v>2.831</v>
       </c>
       <c r="L623" t="n">
-        <v>2.805</v>
+        <v>2.787</v>
       </c>
       <c r="M623" t="n">
-        <v>2.963</v>
+        <v>2.945</v>
       </c>
       <c r="N623" t="n">
-        <v>2.908</v>
+        <v>2.891</v>
       </c>
     </row>
     <row r="624">
@@ -27884,43 +27884,43 @@
         <v>44785</v>
       </c>
       <c r="B624" t="n">
-        <v>2.401</v>
+        <v>2.35</v>
       </c>
       <c r="C624" t="n">
-        <v>2.483</v>
+        <v>2.47</v>
       </c>
       <c r="D624" t="n">
-        <v>2.859</v>
+        <v>2.84</v>
       </c>
       <c r="E624" t="n">
-        <v>3.224</v>
+        <v>3.21</v>
       </c>
       <c r="F624" t="n">
-        <v>3.414</v>
+        <v>3.43</v>
       </c>
       <c r="G624" t="n">
-        <v>3.262</v>
+        <v>3.238</v>
       </c>
       <c r="H624" t="n">
-        <v>3.17</v>
+        <v>3.148</v>
       </c>
       <c r="I624" t="n">
-        <v>3.114</v>
+        <v>3.094</v>
       </c>
       <c r="J624" t="n">
-        <v>2.869</v>
+        <v>2.849</v>
       </c>
       <c r="K624" t="n">
-        <v>2.806</v>
+        <v>2.788</v>
       </c>
       <c r="L624" t="n">
-        <v>2.754</v>
+        <v>2.738</v>
       </c>
       <c r="M624" t="n">
-        <v>2.92</v>
+        <v>2.913</v>
       </c>
       <c r="N624" t="n">
-        <v>2.866</v>
+        <v>2.853</v>
       </c>
     </row>
     <row r="625">
@@ -27928,43 +27928,87 @@
         <v>44788</v>
       </c>
       <c r="B625" t="n">
-        <v>2.401</v>
+        <v>2.34</v>
       </c>
       <c r="C625" t="n">
-        <v>2.484</v>
+        <v>2.47</v>
       </c>
       <c r="D625" t="n">
-        <v>2.859</v>
+        <v>2.84</v>
       </c>
       <c r="E625" t="n">
-        <v>3.231</v>
+        <v>3.22</v>
       </c>
       <c r="F625" t="n">
-        <v>3.405</v>
+        <v>3.42</v>
       </c>
       <c r="G625" t="n">
-        <v>3.233</v>
+        <v>3.209</v>
       </c>
       <c r="H625" t="n">
-        <v>3.132</v>
+        <v>3.111</v>
       </c>
       <c r="I625" t="n">
-        <v>3.076</v>
+        <v>3.057</v>
       </c>
       <c r="J625" t="n">
-        <v>2.829</v>
+        <v>2.809</v>
       </c>
       <c r="K625" t="n">
-        <v>2.766</v>
+        <v>2.748</v>
       </c>
       <c r="L625" t="n">
-        <v>2.711</v>
+        <v>2.695</v>
       </c>
       <c r="M625" t="n">
-        <v>2.891</v>
+        <v>2.874</v>
       </c>
       <c r="N625" t="n">
-        <v>2.853</v>
+        <v>2.837</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D626" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E626" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F626" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G626" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="H626" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="J626" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K626" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="L626" t="n">
+        <v>2.753</v>
+      </c>
+      <c r="M626" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="N626" t="n">
+        <v>2.837</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N626"/>
+  <dimension ref="A1:N627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28011,6 +28011,50 @@
         <v>2.837</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B627" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D627" t="n">
+        <v>3</v>
+      </c>
+      <c r="E627" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F627" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G627" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="H627" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3.249</v>
+      </c>
+      <c r="J627" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="K627" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="L627" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M627" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="N627" t="n">
+        <v>2.909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N627"/>
+  <dimension ref="A1:N628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28055,6 +28055,50 @@
         <v>2.909</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B628" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C628" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D628" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E628" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F628" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G628" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="H628" t="n">
+        <v>3.312</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3.247</v>
+      </c>
+      <c r="J628" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="K628" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="L628" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="M628" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="N628" t="n">
+        <v>2.892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N628"/>
+  <dimension ref="A1:N629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28099,6 +28099,50 @@
         <v>2.892</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B629" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D629" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E629" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F629" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G629" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="H629" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="J629" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="K629" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="L629" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="M629" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="N629" t="n">
+        <v>2.941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N629"/>
+  <dimension ref="A1:N630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28143,6 +28143,50 @@
         <v>2.941</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B630" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D630" t="n">
+        <v>3.101</v>
+      </c>
+      <c r="E630" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F630" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="G630" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="H630" t="n">
+        <v>3.431</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="J630" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="K630" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="L630" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M630" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="N630" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N630"/>
+  <dimension ref="A1:N631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28187,6 +28187,50 @@
         <v>3.02</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B631" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D631" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="E631" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="F631" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="G631" t="n">
+        <v>3.505</v>
+      </c>
+      <c r="H631" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="J631" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="K631" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="L631" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="M631" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="N631" t="n">
+        <v>3.034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N631"/>
+  <dimension ref="A1:N632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28231,6 +28231,50 @@
         <v>3.034</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B632" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="D632" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="E632" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="F632" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="G632" t="n">
+        <v>3.539</v>
+      </c>
+      <c r="H632" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="J632" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="K632" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="L632" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="M632" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="N632" t="n">
+        <v>3.089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N632"/>
+  <dimension ref="A1:N633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28239,7 +28239,7 @@
         <v>2.513</v>
       </c>
       <c r="C632" t="n">
-        <v>2.743</v>
+        <v>2.72</v>
       </c>
       <c r="D632" t="n">
         <v>3.144</v>
@@ -28273,6 +28273,50 @@
       </c>
       <c r="N632" t="n">
         <v>3.089</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2.519</v>
+      </c>
+      <c r="C633" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="D633" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="E633" t="n">
+        <v>3.512</v>
+      </c>
+      <c r="F633" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="G633" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="H633" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="J633" t="n">
+        <v>3.201</v>
+      </c>
+      <c r="K633" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="L633" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="M633" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="N633" t="n">
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N633"/>
+  <dimension ref="A1:N634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28148,43 +28148,43 @@
         <v>44795</v>
       </c>
       <c r="B630" t="n">
-        <v>2.497</v>
+        <v>2.47</v>
       </c>
       <c r="C630" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D630" t="n">
-        <v>3.101</v>
+        <v>3.08</v>
       </c>
       <c r="E630" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="F630" t="n">
-        <v>3.632</v>
+        <v>3.65</v>
       </c>
       <c r="G630" t="n">
-        <v>3.509</v>
+        <v>3.506</v>
       </c>
       <c r="H630" t="n">
-        <v>3.431</v>
+        <v>3.42</v>
       </c>
       <c r="I630" t="n">
-        <v>3.372</v>
+        <v>3.361</v>
       </c>
       <c r="J630" t="n">
         <v>3.175</v>
       </c>
       <c r="K630" t="n">
-        <v>3.098</v>
+        <v>3.076</v>
       </c>
       <c r="L630" t="n">
-        <v>3.03</v>
+        <v>3.016</v>
       </c>
       <c r="M630" t="n">
-        <v>3.083</v>
+        <v>3.073</v>
       </c>
       <c r="N630" t="n">
-        <v>3.02</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="631">
@@ -28192,43 +28192,43 @@
         <v>44796</v>
       </c>
       <c r="B631" t="n">
-        <v>2.509</v>
+        <v>2.48</v>
       </c>
       <c r="C631" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="D631" t="n">
-        <v>3.123</v>
+        <v>3.1</v>
       </c>
       <c r="E631" t="n">
-        <v>3.503</v>
+        <v>3.49</v>
       </c>
       <c r="F631" t="n">
-        <v>3.662</v>
+        <v>3.68</v>
       </c>
       <c r="G631" t="n">
-        <v>3.505</v>
+        <v>3.477</v>
       </c>
       <c r="H631" t="n">
-        <v>3.428</v>
+        <v>3.402</v>
       </c>
       <c r="I631" t="n">
-        <v>3.385</v>
+        <v>3.36</v>
       </c>
       <c r="J631" t="n">
         <v>3.193</v>
       </c>
       <c r="K631" t="n">
-        <v>3.117</v>
+        <v>3.095</v>
       </c>
       <c r="L631" t="n">
-        <v>3.062</v>
+        <v>3.041</v>
       </c>
       <c r="M631" t="n">
-        <v>3.096</v>
+        <v>3.076</v>
       </c>
       <c r="N631" t="n">
-        <v>3.034</v>
+        <v>3.015</v>
       </c>
     </row>
     <row r="632">
@@ -28236,43 +28236,43 @@
         <v>44797</v>
       </c>
       <c r="B632" t="n">
-        <v>2.513</v>
+        <v>2.49</v>
       </c>
       <c r="C632" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="D632" t="n">
-        <v>3.144</v>
+        <v>3.12</v>
       </c>
       <c r="E632" t="n">
-        <v>3.502</v>
+        <v>3.49</v>
       </c>
       <c r="F632" t="n">
-        <v>3.671</v>
+        <v>3.69</v>
       </c>
       <c r="G632" t="n">
-        <v>3.539</v>
+        <v>3.51</v>
       </c>
       <c r="H632" t="n">
-        <v>3.474</v>
+        <v>3.448</v>
       </c>
       <c r="I632" t="n">
-        <v>3.436</v>
+        <v>3.411</v>
       </c>
       <c r="J632" t="n">
         <v>3.254</v>
       </c>
       <c r="K632" t="n">
-        <v>3.174</v>
+        <v>3.151</v>
       </c>
       <c r="L632" t="n">
-        <v>3.118</v>
+        <v>3.096</v>
       </c>
       <c r="M632" t="n">
-        <v>3.153</v>
+        <v>3.132</v>
       </c>
       <c r="N632" t="n">
-        <v>3.089</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="633">
@@ -28280,43 +28280,87 @@
         <v>44798</v>
       </c>
       <c r="B633" t="n">
-        <v>2.519</v>
+        <v>2.5</v>
       </c>
       <c r="C633" t="n">
-        <v>2.773</v>
+        <v>2.74</v>
       </c>
       <c r="D633" t="n">
-        <v>3.164</v>
+        <v>3.14</v>
       </c>
       <c r="E633" t="n">
-        <v>3.512</v>
+        <v>3.5</v>
       </c>
       <c r="F633" t="n">
-        <v>3.671</v>
+        <v>3.69</v>
       </c>
       <c r="G633" t="n">
-        <v>3.526</v>
+        <v>3.497</v>
       </c>
       <c r="H633" t="n">
-        <v>3.463</v>
+        <v>3.436</v>
       </c>
       <c r="I633" t="n">
-        <v>3.414</v>
+        <v>3.389</v>
       </c>
       <c r="J633" t="n">
         <v>3.201</v>
       </c>
       <c r="K633" t="n">
-        <v>3.114</v>
+        <v>3.092</v>
       </c>
       <c r="L633" t="n">
-        <v>3.034</v>
+        <v>3.014</v>
       </c>
       <c r="M633" t="n">
-        <v>3.083</v>
+        <v>3.064</v>
       </c>
       <c r="N633" t="n">
-        <v>3.02</v>
+        <v>3.001</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B634" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C634" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D634" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E634" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F634" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G634" t="n">
+        <v>3.534</v>
+      </c>
+      <c r="H634" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3.422</v>
+      </c>
+      <c r="J634" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="K634" t="n">
+        <v>3.107</v>
+      </c>
+      <c r="L634" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="M634" t="n">
+        <v>3.043</v>
+      </c>
+      <c r="N634" t="n">
+        <v>2.974</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -28172,7 +28172,7 @@
         <v>3.361</v>
       </c>
       <c r="J630" t="n">
-        <v>3.175</v>
+        <v>3.15</v>
       </c>
       <c r="K630" t="n">
         <v>3.076</v>
@@ -28216,7 +28216,7 @@
         <v>3.36</v>
       </c>
       <c r="J631" t="n">
-        <v>3.193</v>
+        <v>3.168</v>
       </c>
       <c r="K631" t="n">
         <v>3.095</v>
@@ -28260,7 +28260,7 @@
         <v>3.411</v>
       </c>
       <c r="J632" t="n">
-        <v>3.254</v>
+        <v>3.228</v>
       </c>
       <c r="K632" t="n">
         <v>3.151</v>
@@ -28304,7 +28304,7 @@
         <v>3.389</v>
       </c>
       <c r="J633" t="n">
-        <v>3.201</v>
+        <v>3.175</v>
       </c>
       <c r="K633" t="n">
         <v>3.092</v>
@@ -28348,7 +28348,7 @@
         <v>3.422</v>
       </c>
       <c r="J634" t="n">
-        <v>3.218</v>
+        <v>3.192</v>
       </c>
       <c r="K634" t="n">
         <v>3.107</v>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N634"/>
+  <dimension ref="A1:N635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28363,6 +28363,50 @@
         <v>2.974</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B635" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="C635" t="n">
+        <v>2.864</v>
+      </c>
+      <c r="D635" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="E635" t="n">
+        <v>3.563</v>
+      </c>
+      <c r="F635" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="G635" t="n">
+        <v>3.618</v>
+      </c>
+      <c r="H635" t="n">
+        <v>3.572</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3.518</v>
+      </c>
+      <c r="J635" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K635" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L635" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="M635" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="N635" t="n">
+        <v>3.032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N635"/>
+  <dimension ref="A1:N636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28368,43 +28368,87 @@
         <v>44802</v>
       </c>
       <c r="B635" t="n">
-        <v>2.645</v>
+        <v>2.6</v>
       </c>
       <c r="C635" t="n">
-        <v>2.864</v>
+        <v>2.84</v>
       </c>
       <c r="D635" t="n">
-        <v>3.207</v>
+        <v>3.18</v>
       </c>
       <c r="E635" t="n">
-        <v>3.563</v>
+        <v>3.55</v>
       </c>
       <c r="F635" t="n">
-        <v>3.723</v>
+        <v>3.74</v>
       </c>
       <c r="G635" t="n">
-        <v>3.618</v>
+        <v>3.614</v>
       </c>
       <c r="H635" t="n">
-        <v>3.572</v>
+        <v>3.56</v>
       </c>
       <c r="I635" t="n">
-        <v>3.518</v>
+        <v>3.505</v>
       </c>
       <c r="J635" t="n">
-        <v>3.28</v>
+        <v>3.254</v>
       </c>
       <c r="K635" t="n">
-        <v>3.19</v>
+        <v>3.167</v>
       </c>
       <c r="L635" t="n">
-        <v>3.104</v>
+        <v>3.083</v>
       </c>
       <c r="M635" t="n">
-        <v>3.104</v>
+        <v>3.085</v>
       </c>
       <c r="N635" t="n">
-        <v>3.032</v>
+        <v>3.013</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B636" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C636" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D636" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E636" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F636" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G636" t="n">
+        <v>3.638</v>
+      </c>
+      <c r="H636" t="n">
+        <v>3.582</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="J636" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="K636" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="L636" t="n">
+        <v>3.073</v>
+      </c>
+      <c r="M636" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="N636" t="n">
+        <v>2.997</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N636"/>
+  <dimension ref="A1:N637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28412,43 +28412,87 @@
         <v>44803</v>
       </c>
       <c r="B636" t="n">
-        <v>2.66</v>
+        <v>2.695</v>
       </c>
       <c r="C636" t="n">
-        <v>2.93</v>
+        <v>2.955</v>
       </c>
       <c r="D636" t="n">
         <v>3.24</v>
       </c>
       <c r="E636" t="n">
-        <v>3.59</v>
+        <v>3.605</v>
       </c>
       <c r="F636" t="n">
-        <v>3.81</v>
+        <v>3.793</v>
       </c>
       <c r="G636" t="n">
-        <v>3.638</v>
+        <v>3.669</v>
       </c>
       <c r="H636" t="n">
-        <v>3.582</v>
+        <v>3.612</v>
       </c>
       <c r="I636" t="n">
-        <v>3.533</v>
+        <v>3.56</v>
       </c>
       <c r="J636" t="n">
-        <v>3.263</v>
+        <v>3.289</v>
       </c>
       <c r="K636" t="n">
-        <v>3.167</v>
+        <v>3.191</v>
       </c>
       <c r="L636" t="n">
-        <v>3.073</v>
+        <v>3.094</v>
       </c>
       <c r="M636" t="n">
-        <v>3.071</v>
+        <v>3.091</v>
       </c>
       <c r="N636" t="n">
-        <v>2.997</v>
+        <v>3.013</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B637" t="n">
+        <v>2.701</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D637" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="E637" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="F637" t="n">
+        <v>3.763</v>
+      </c>
+      <c r="G637" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="H637" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="J637" t="n">
+        <v>3.326</v>
+      </c>
+      <c r="K637" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="L637" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="M637" t="n">
+        <v>3.147</v>
+      </c>
+      <c r="N637" t="n">
+        <v>3.059</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N637"/>
+  <dimension ref="A1:N638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28495,6 +28495,50 @@
         <v>3.059</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B638" t="n">
+        <v>2.763</v>
+      </c>
+      <c r="C638" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="D638" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="E638" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="F638" t="n">
+        <v>3.783</v>
+      </c>
+      <c r="G638" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="H638" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J638" t="n">
+        <v>3.329</v>
+      </c>
+      <c r="K638" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L638" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="M638" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="N638" t="n">
+        <v>3.115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N638"/>
+  <dimension ref="A1:N639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28515,10 +28515,10 @@
         <v>3.783</v>
       </c>
       <c r="G638" t="n">
-        <v>3.684</v>
+        <v>3.677</v>
       </c>
       <c r="H638" t="n">
-        <v>3.647</v>
+        <v>3.632</v>
       </c>
       <c r="I638" t="n">
         <v>3.58</v>
@@ -28537,6 +28537,50 @@
       </c>
       <c r="N638" t="n">
         <v>3.115</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B639" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="C639" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D639" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="E639" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="F639" t="n">
+        <v>3.753</v>
+      </c>
+      <c r="G639" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="H639" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J639" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="K639" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="L639" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="M639" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="N639" t="n">
+        <v>3.063</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N639"/>
+  <dimension ref="A1:N640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28583,6 +28583,50 @@
         <v>3.063</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B640" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="C640" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="D640" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="E640" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F640" t="n">
+        <v>3.764</v>
+      </c>
+      <c r="G640" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H640" t="n">
+        <v>3.602</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3.537</v>
+      </c>
+      <c r="J640" t="n">
+        <v>3.326</v>
+      </c>
+      <c r="K640" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="L640" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="M640" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="N640" t="n">
+        <v>3.184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N640"/>
+  <dimension ref="A1:N642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28627,6 +28627,94 @@
         <v>3.184</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B641" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C641" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="D641" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="E641" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F641" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="G641" t="n">
+        <v>3.628</v>
+      </c>
+      <c r="H641" t="n">
+        <v>3.589</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="J641" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="K641" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="L641" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="M641" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="N641" t="n">
+        <v>3.158</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B642" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="C642" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="D642" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="E642" t="n">
+        <v>3.606</v>
+      </c>
+      <c r="F642" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="G642" t="n">
+        <v>3.702</v>
+      </c>
+      <c r="H642" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J642" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="K642" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="L642" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="M642" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="N642" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N642"/>
+  <dimension ref="A1:N643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28715,6 +28715,50 @@
         <v>3.216</v>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B643" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="C643" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="D643" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="E643" t="n">
+        <v>3.608</v>
+      </c>
+      <c r="F643" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="G643" t="n">
+        <v>3.648</v>
+      </c>
+      <c r="H643" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3.514</v>
+      </c>
+      <c r="J643" t="n">
+        <v>3.282</v>
+      </c>
+      <c r="K643" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="L643" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="M643" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="N643" t="n">
+        <v>3.168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -28729,7 +28729,7 @@
         <v>3.388</v>
       </c>
       <c r="E643" t="n">
-        <v>3.608</v>
+        <v>3.618</v>
       </c>
       <c r="F643" t="n">
         <v>3.765</v>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N643"/>
+  <dimension ref="A1:N645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28759,6 +28759,94 @@
         <v>3.168</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B644" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="C644" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="D644" t="n">
+        <v>3.388</v>
+      </c>
+      <c r="E644" t="n">
+        <v>3.618</v>
+      </c>
+      <c r="F644" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="G644" t="n">
+        <v>3.635</v>
+      </c>
+      <c r="H644" t="n">
+        <v>3.582</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="J644" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="K644" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="L644" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="M644" t="n">
+        <v>3.253</v>
+      </c>
+      <c r="N644" t="n">
+        <v>3.184</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B645" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="C645" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="D645" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="E645" t="n">
+        <v>3.705</v>
+      </c>
+      <c r="F645" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="G645" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H645" t="n">
+        <v>3.688</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3.589</v>
+      </c>
+      <c r="J645" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="K645" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="L645" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M645" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="N645" t="n">
+        <v>3.171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Canada.xlsx
+++ b/Bonds_Canada.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N645"/>
+  <dimension ref="A1:N646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28847,6 +28847,50 @@
         <v>3.171</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B646" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="C646" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="D646" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E646" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="F646" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="G646" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="H646" t="n">
+        <v>3.729</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="J646" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="K646" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="L646" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="M646" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="N646" t="n">
+        <v>3.118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
